--- a/BUDGET/excel_reports/ORSSUMMARY2.xlsx
+++ b/BUDGET/excel_reports/ORSSUMMARY2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>DATE</t>
   </si>
@@ -34,6 +34,45 @@
     <t>GROSS</t>
   </si>
   <si>
+    <t>EXP CODE 1</t>
+  </si>
+  <si>
+    <t>AMOUNT 1</t>
+  </si>
+  <si>
+    <t>EXP CODE 2</t>
+  </si>
+  <si>
+    <t>AMOUNT 2</t>
+  </si>
+  <si>
+    <t>EXP CODE 3</t>
+  </si>
+  <si>
+    <t>AMOUNT 3</t>
+  </si>
+  <si>
+    <t>EXP CODE 4</t>
+  </si>
+  <si>
+    <t>AMOUNT 4</t>
+  </si>
+  <si>
+    <t>01/09/2019</t>
+  </si>
+  <si>
+    <t>T12-8464</t>
+  </si>
+  <si>
+    <t>ALMA LUDALIN NABOYA</t>
+  </si>
+  <si>
+    <t>2018 PHM CONAP</t>
+  </si>
+  <si>
+    <t>T12-8463</t>
+  </si>
+  <si>
     <t>01/10/2019</t>
   </si>
   <si>
@@ -41,21 +80,6 @@
   </si>
   <si>
     <t>SIMPLICIO TORREON</t>
-  </si>
-  <si>
-    <t>2018 PHM CONAP</t>
-  </si>
-  <si>
-    <t>01/09/2019</t>
-  </si>
-  <si>
-    <t>T12-8464</t>
-  </si>
-  <si>
-    <t>ALMA LUDALIN NABOYA</t>
-  </si>
-  <si>
-    <t>T12-8463</t>
   </si>
   <si>
     <t>01/11/2019</t>
@@ -314,8 +338,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -353,7 +378,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -365,6 +390,13 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -662,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -676,7 +708,14 @@
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1" s="3" customFormat="1">
@@ -698,907 +737,1419 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D2" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1150</v>
+      </c>
+      <c r="G2" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H2" s="8">
+        <v>650</v>
+      </c>
+      <c r="I2" s="6">
+        <v>5020201002</v>
+      </c>
+      <c r="J2" s="8">
+        <v>500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F3" s="7">
+        <v>3500</v>
+      </c>
+      <c r="G3" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H3" s="8">
+        <v>3500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D4" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F4" s="7">
+        <v>620</v>
+      </c>
+      <c r="G4" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H4" s="8">
+        <v>620</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D5" s="0">
         <v>17</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F5" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="6">
+        <v>5020301002</v>
+      </c>
+      <c r="H5" s="8">
+        <v>100000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D6" s="0">
         <v>22</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4516.31</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5020502001</v>
+      </c>
+      <c r="H6" s="8">
+        <v>4516.31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D7" s="0">
         <v>27</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1515</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0">
         <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3950</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3950</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D9" s="0">
         <v>29</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2945</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H9" s="8">
+        <v>2945</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D10" s="0">
         <v>30</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3114</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H10" s="8">
+        <v>3114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D11" s="0">
         <v>31</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3185</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H11" s="8">
+        <v>3185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D12" s="0">
         <v>41</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2265</v>
+      </c>
+      <c r="G12" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2265</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D13" s="0">
         <v>43</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1800</v>
+      </c>
+      <c r="G13" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1800</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D14" s="0">
         <v>46</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2922</v>
+      </c>
+      <c r="G14" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H14" s="8">
+        <v>2922</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D15" s="0">
         <v>50</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F15" s="7">
+        <v>27321.88</v>
+      </c>
+      <c r="G15" s="6">
+        <v>5020501000</v>
+      </c>
+      <c r="H15" s="8">
+        <v>27321.88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D16" s="0">
         <v>51</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1048.78</v>
+      </c>
+      <c r="G16" s="6">
+        <v>5020502002</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1048.78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D17" s="0">
         <v>52</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1048.78</v>
+      </c>
+      <c r="G17" s="6">
+        <v>5020502002</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1048.78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D18" s="0">
         <v>53</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F18" s="7">
+        <v>887.99</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5020502002</v>
+      </c>
+      <c r="H18" s="8">
+        <v>887.99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D19" s="0">
         <v>54</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1099.49</v>
+      </c>
+      <c r="G19" s="6">
+        <v>5020502002</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1099.49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D20" s="0">
         <v>55</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F20" s="7">
+        <v>887.99</v>
+      </c>
+      <c r="G20" s="6">
+        <v>5020502002</v>
+      </c>
+      <c r="H20" s="8">
+        <v>887.99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D21" s="0">
         <v>56</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F21" s="7">
+        <v>47040</v>
+      </c>
+      <c r="G21" s="6">
+        <v>5020503000</v>
+      </c>
+      <c r="H21" s="8">
+        <v>47040</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D22" s="0">
         <v>57</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1489.48</v>
+      </c>
+      <c r="G22" s="6">
+        <v>5020502002</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1489.48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D23" s="0">
         <v>59</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1256.99</v>
+      </c>
+      <c r="G23" s="6">
+        <v>5020502002</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1256.99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D24" s="0">
         <v>60</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1134.49</v>
+      </c>
+      <c r="G24" s="6">
+        <v>5020502002</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1134.49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D25" s="0">
         <v>61</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F25" s="7">
+        <v>887.99</v>
+      </c>
+      <c r="G25" s="6">
+        <v>5020502002</v>
+      </c>
+      <c r="H25" s="8">
+        <v>887.99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D26" s="0">
         <v>63</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F26" s="7">
+        <v>58548.25</v>
+      </c>
+      <c r="G26" s="6">
+        <v>5020301002</v>
+      </c>
+      <c r="H26" s="8">
+        <v>26936.25</v>
+      </c>
+      <c r="I26" s="6">
+        <v>5020321003</v>
+      </c>
+      <c r="J26" s="8">
+        <v>18490</v>
+      </c>
+      <c r="K26" s="6">
+        <v>5021304001</v>
+      </c>
+      <c r="L26" s="8">
+        <v>6749</v>
+      </c>
+      <c r="M26" s="6">
+        <v>5021307000</v>
+      </c>
+      <c r="N26" s="8">
+        <v>6373</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D27" s="0">
         <v>65</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1216.78</v>
+      </c>
+      <c r="G27" s="6">
+        <v>5020502002</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1216.78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D28" s="0">
         <v>66</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1688.98</v>
+      </c>
+      <c r="G28" s="6">
+        <v>5020502002</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1688.98</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D29" s="0">
         <v>72</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F29" s="7">
+        <v>2585</v>
+      </c>
+      <c r="G29" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H29" s="8">
+        <v>2585</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D30" s="0">
         <v>84</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1005</v>
+      </c>
+      <c r="G30" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1005</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D31" s="0">
         <v>85</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F31" s="7">
+        <v>4148.26</v>
+      </c>
+      <c r="G31" s="6">
+        <v>5020502002</v>
+      </c>
+      <c r="H31" s="8">
+        <v>4148.26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D32" s="0">
         <v>86</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F32" s="7">
+        <v>2113.36</v>
+      </c>
+      <c r="G32" s="6">
+        <v>5020502002</v>
+      </c>
+      <c r="H32" s="8">
+        <v>2113.36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D33" s="0">
         <v>87</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F33" s="7">
+        <v>2147.75</v>
+      </c>
+      <c r="G33" s="6">
+        <v>5020502002</v>
+      </c>
+      <c r="H33" s="8">
+        <v>2147.75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D34" s="0">
         <v>89</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F34" s="7">
+        <v>6035</v>
+      </c>
+      <c r="G34" s="6">
+        <v>5020201002</v>
+      </c>
+      <c r="H34" s="8">
+        <v>6035</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D35" s="0">
         <v>90</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F35" s="7">
+        <v>13487.02</v>
+      </c>
+      <c r="G35" s="6">
+        <v>5020201002</v>
+      </c>
+      <c r="H35" s="8">
+        <v>13487.02</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D36" s="0">
         <v>91</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F36" s="7">
+        <v>15168.77</v>
+      </c>
+      <c r="G36" s="6">
+        <v>5020201002</v>
+      </c>
+      <c r="H36" s="8">
+        <v>15168.77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D37" s="0">
         <v>92</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1460</v>
+      </c>
+      <c r="G37" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H37" s="8">
+        <v>1460</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D38" s="0">
         <v>93</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F38" s="7">
+        <v>46761.68</v>
+      </c>
+      <c r="G38" s="6">
+        <v>5020402000</v>
+      </c>
+      <c r="H38" s="8">
+        <v>46761.68</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D39" s="0">
         <v>94</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F39" s="7">
+        <v>85517.4</v>
+      </c>
+      <c r="G39" s="6">
+        <v>5020402000</v>
+      </c>
+      <c r="H39" s="8">
+        <v>85517.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D40" s="0">
         <v>95</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F40" s="7">
+        <v>10640</v>
+      </c>
+      <c r="G40" s="6">
+        <v>5020503000</v>
+      </c>
+      <c r="H40" s="8">
+        <v>10640</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D41" s="0">
         <v>96</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F41" s="7">
+        <v>130781.99</v>
+      </c>
+      <c r="G41" s="6">
+        <v>5020402000</v>
+      </c>
+      <c r="H41" s="8">
+        <v>130781.99</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D42" s="0">
         <v>97</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F42" s="7">
+        <v>33323.94</v>
+      </c>
+      <c r="G42" s="6">
+        <v>5029904000</v>
+      </c>
+      <c r="H42" s="8">
+        <v>33323.94</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D43" s="0">
         <v>98</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F43" s="7">
+        <v>2203.62</v>
+      </c>
+      <c r="G43" s="6">
+        <v>5029904000</v>
+      </c>
+      <c r="H43" s="8">
+        <v>2203.62</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D44" s="0">
         <v>99</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F44" s="7">
+        <v>366557.9</v>
+      </c>
+      <c r="G44" s="6">
+        <v>5029904000</v>
+      </c>
+      <c r="H44" s="8">
+        <v>366557.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D45" s="0">
         <v>100</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1487.96</v>
+      </c>
+      <c r="G45" s="6">
+        <v>5020502002</v>
+      </c>
+      <c r="H45" s="8">
+        <v>1487.96</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D46" s="0">
         <v>101</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F46" s="7">
+        <v>440</v>
+      </c>
+      <c r="G46" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H46" s="8">
+        <v>440</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D47" s="0">
         <v>103</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F47" s="7">
+        <v>880</v>
+      </c>
+      <c r="G47" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H47" s="8">
+        <v>880</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D48" s="0">
         <v>104</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1010</v>
+      </c>
+      <c r="G48" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H48" s="8">
+        <v>1010</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D49" s="0">
         <v>105</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1010</v>
+      </c>
+      <c r="G49" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H49" s="8">
+        <v>1010</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D50" s="0">
         <v>120</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1080</v>
+      </c>
+      <c r="G50" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H50" s="8">
+        <v>1080</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D51" s="0">
         <v>121</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F51" s="7">
+        <v>2085</v>
+      </c>
+      <c r="G51" s="6">
+        <v>5020101000</v>
+      </c>
+      <c r="H51" s="8">
+        <v>2085</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D52" s="0">
         <v>125</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D53" s="0">
         <v>126</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D54" s="0">
         <v>132</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F54" s="7">
+        <v>3568.98</v>
+      </c>
+      <c r="G54" s="6">
+        <v>5020502002</v>
+      </c>
+      <c r="H54" s="8">
+        <v>3568.98</v>
       </c>
     </row>
   </sheetData>

--- a/BUDGET/excel_reports/ORSSUMMARY2.xlsx
+++ b/BUDGET/excel_reports/ORSSUMMARY2.xlsx
@@ -378,7 +378,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -390,6 +390,9 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
@@ -772,25 +775,25 @@
       <c r="C2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2" s="6">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>1150</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="9">
         <v>650</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="7">
         <v>5020201002</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="9">
         <v>500</v>
       </c>
     </row>
@@ -804,19 +807,19 @@
       <c r="C3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3" s="6">
         <v>5</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>3500</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="9">
         <v>3500</v>
       </c>
     </row>
@@ -830,19 +833,19 @@
       <c r="C4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4" s="6">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>620</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="9">
         <v>620</v>
       </c>
     </row>
@@ -856,19 +859,19 @@
       <c r="C5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5" s="6">
         <v>17</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>100000</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>5020301002</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="9">
         <v>100000</v>
       </c>
     </row>
@@ -882,19 +885,19 @@
       <c r="C6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6" s="6">
         <v>22</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>4516.31</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>5020502001</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="9">
         <v>4516.31</v>
       </c>
     </row>
@@ -908,19 +911,19 @@
       <c r="C7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7" s="6">
         <v>27</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>1515</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="9">
         <v>1515</v>
       </c>
     </row>
@@ -934,19 +937,19 @@
       <c r="C8" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8" s="6">
         <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>3950</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="9">
         <v>3950</v>
       </c>
     </row>
@@ -960,19 +963,19 @@
       <c r="C9" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9" s="6">
         <v>29</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>2945</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="9">
         <v>2945</v>
       </c>
     </row>
@@ -986,19 +989,19 @@
       <c r="C10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10" s="6">
         <v>30</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>3114</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="9">
         <v>3114</v>
       </c>
     </row>
@@ -1012,19 +1015,19 @@
       <c r="C11" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11" s="6">
         <v>31</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>3185</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="9">
         <v>3185</v>
       </c>
     </row>
@@ -1038,19 +1041,19 @@
       <c r="C12" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12" s="6">
         <v>41</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>2265</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="9">
         <v>2265</v>
       </c>
     </row>
@@ -1064,19 +1067,19 @@
       <c r="C13" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13" s="6">
         <v>43</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>1800</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="9">
         <v>1800</v>
       </c>
     </row>
@@ -1090,19 +1093,19 @@
       <c r="C14" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14" s="6">
         <v>46</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>2922</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="9">
         <v>2922</v>
       </c>
     </row>
@@ -1116,19 +1119,19 @@
       <c r="C15" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15" s="6">
         <v>50</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>27321.88</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="7">
         <v>5020501000</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="9">
         <v>27321.88</v>
       </c>
     </row>
@@ -1142,19 +1145,19 @@
       <c r="C16" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16" s="6">
         <v>51</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>1048.78</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="7">
         <v>5020502002</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="9">
         <v>1048.78</v>
       </c>
     </row>
@@ -1168,19 +1171,19 @@
       <c r="C17" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17" s="6">
         <v>52</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <v>1048.78</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <v>5020502002</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="9">
         <v>1048.78</v>
       </c>
     </row>
@@ -1194,19 +1197,19 @@
       <c r="C18" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18" s="6">
         <v>53</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>887.99</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="7">
         <v>5020502002</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="9">
         <v>887.99</v>
       </c>
     </row>
@@ -1220,19 +1223,19 @@
       <c r="C19" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19" s="6">
         <v>54</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <v>1099.49</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="7">
         <v>5020502002</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="9">
         <v>1099.49</v>
       </c>
     </row>
@@ -1246,19 +1249,19 @@
       <c r="C20" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20" s="6">
         <v>55</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <v>887.99</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="7">
         <v>5020502002</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="9">
         <v>887.99</v>
       </c>
     </row>
@@ -1272,19 +1275,19 @@
       <c r="C21" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21" s="6">
         <v>56</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <v>47040</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="7">
         <v>5020503000</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="9">
         <v>47040</v>
       </c>
     </row>
@@ -1298,19 +1301,19 @@
       <c r="C22" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22" s="6">
         <v>57</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="8">
         <v>1489.48</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="7">
         <v>5020502002</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="9">
         <v>1489.48</v>
       </c>
     </row>
@@ -1324,19 +1327,19 @@
       <c r="C23" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23" s="6">
         <v>59</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="8">
         <v>1256.99</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="7">
         <v>5020502002</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="9">
         <v>1256.99</v>
       </c>
     </row>
@@ -1350,19 +1353,19 @@
       <c r="C24" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24" s="6">
         <v>60</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="8">
         <v>1134.49</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="7">
         <v>5020502002</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="9">
         <v>1134.49</v>
       </c>
     </row>
@@ -1376,19 +1379,19 @@
       <c r="C25" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25" s="6">
         <v>61</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="8">
         <v>887.99</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="7">
         <v>5020502002</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="9">
         <v>887.99</v>
       </c>
     </row>
@@ -1402,37 +1405,37 @@
       <c r="C26" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="0">
+      <c r="D26" s="6">
         <v>63</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="8">
         <v>58548.25</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="7">
         <v>5020301002</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="9">
         <v>26936.25</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="7">
         <v>5020321003</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="9">
         <v>18490</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="7">
         <v>5021304001</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="9">
         <v>6749</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="7">
         <v>5021307000</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="9">
         <v>6373</v>
       </c>
     </row>
@@ -1446,19 +1449,19 @@
       <c r="C27" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27" s="6">
         <v>65</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="8">
         <v>1216.78</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="7">
         <v>5020502002</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="9">
         <v>1216.78</v>
       </c>
     </row>
@@ -1472,19 +1475,19 @@
       <c r="C28" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28" s="6">
         <v>66</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="8">
         <v>1688.98</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="7">
         <v>5020502002</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="9">
         <v>1688.98</v>
       </c>
     </row>
@@ -1498,19 +1501,19 @@
       <c r="C29" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29" s="6">
         <v>72</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="8">
         <v>2585</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="9">
         <v>2585</v>
       </c>
     </row>
@@ -1524,19 +1527,19 @@
       <c r="C30" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30" s="6">
         <v>84</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="8">
         <v>1005</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="9">
         <v>1005</v>
       </c>
     </row>
@@ -1550,19 +1553,19 @@
       <c r="C31" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31" s="6">
         <v>85</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="8">
         <v>4148.26</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="7">
         <v>5020502002</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="9">
         <v>4148.26</v>
       </c>
     </row>
@@ -1576,19 +1579,19 @@
       <c r="C32" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32" s="6">
         <v>86</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="8">
         <v>2113.36</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="7">
         <v>5020502002</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="9">
         <v>2113.36</v>
       </c>
     </row>
@@ -1602,19 +1605,19 @@
       <c r="C33" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33" s="6">
         <v>87</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="8">
         <v>2147.75</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="7">
         <v>5020502002</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="9">
         <v>2147.75</v>
       </c>
     </row>
@@ -1628,19 +1631,19 @@
       <c r="C34" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="0">
+      <c r="D34" s="6">
         <v>89</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="8">
         <v>6035</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="7">
         <v>5020201002</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="9">
         <v>6035</v>
       </c>
     </row>
@@ -1654,19 +1657,19 @@
       <c r="C35" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="0">
+      <c r="D35" s="6">
         <v>90</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="8">
         <v>13487.02</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="7">
         <v>5020201002</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="9">
         <v>13487.02</v>
       </c>
     </row>
@@ -1680,19 +1683,19 @@
       <c r="C36" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="0">
+      <c r="D36" s="6">
         <v>91</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="8">
         <v>15168.77</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="7">
         <v>5020201002</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="9">
         <v>15168.77</v>
       </c>
     </row>
@@ -1706,19 +1709,19 @@
       <c r="C37" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="0">
+      <c r="D37" s="6">
         <v>92</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="8">
         <v>1460</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="9">
         <v>1460</v>
       </c>
     </row>
@@ -1732,19 +1735,19 @@
       <c r="C38" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="0">
+      <c r="D38" s="6">
         <v>93</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="8">
         <v>46761.68</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="7">
         <v>5020402000</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="9">
         <v>46761.68</v>
       </c>
     </row>
@@ -1758,19 +1761,19 @@
       <c r="C39" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="0">
+      <c r="D39" s="6">
         <v>94</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="8">
         <v>85517.4</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="7">
         <v>5020402000</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="9">
         <v>85517.4</v>
       </c>
     </row>
@@ -1784,19 +1787,19 @@
       <c r="C40" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="0">
+      <c r="D40" s="6">
         <v>95</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="8">
         <v>10640</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="7">
         <v>5020503000</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="9">
         <v>10640</v>
       </c>
     </row>
@@ -1810,19 +1813,19 @@
       <c r="C41" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="0">
+      <c r="D41" s="6">
         <v>96</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="8">
         <v>130781.99</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="7">
         <v>5020402000</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="9">
         <v>130781.99</v>
       </c>
     </row>
@@ -1836,19 +1839,19 @@
       <c r="C42" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="0">
+      <c r="D42" s="6">
         <v>97</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="8">
         <v>33323.94</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="7">
         <v>5029904000</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="9">
         <v>33323.94</v>
       </c>
     </row>
@@ -1862,19 +1865,19 @@
       <c r="C43" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="0">
+      <c r="D43" s="6">
         <v>98</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="8">
         <v>2203.62</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="7">
         <v>5029904000</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="9">
         <v>2203.62</v>
       </c>
     </row>
@@ -1888,19 +1891,19 @@
       <c r="C44" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="0">
+      <c r="D44" s="6">
         <v>99</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="8">
         <v>366557.9</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="7">
         <v>5029904000</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="9">
         <v>366557.9</v>
       </c>
     </row>
@@ -1914,19 +1917,19 @@
       <c r="C45" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="0">
+      <c r="D45" s="6">
         <v>100</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="8">
         <v>1487.96</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="7">
         <v>5020502002</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="9">
         <v>1487.96</v>
       </c>
     </row>
@@ -1940,19 +1943,19 @@
       <c r="C46" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="0">
+      <c r="D46" s="6">
         <v>101</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="8">
         <v>440</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="9">
         <v>440</v>
       </c>
     </row>
@@ -1966,19 +1969,19 @@
       <c r="C47" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="0">
+      <c r="D47" s="6">
         <v>103</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="8">
         <v>880</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="9">
         <v>880</v>
       </c>
     </row>
@@ -1992,19 +1995,19 @@
       <c r="C48" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="0">
+      <c r="D48" s="6">
         <v>104</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="8">
         <v>1010</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="9">
         <v>1010</v>
       </c>
     </row>
@@ -2018,19 +2021,19 @@
       <c r="C49" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="0">
+      <c r="D49" s="6">
         <v>105</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="8">
         <v>1010</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="9">
         <v>1010</v>
       </c>
     </row>
@@ -2044,19 +2047,19 @@
       <c r="C50" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="0">
+      <c r="D50" s="6">
         <v>120</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="8">
         <v>1080</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="9">
         <v>1080</v>
       </c>
     </row>
@@ -2070,19 +2073,19 @@
       <c r="C51" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="0">
+      <c r="D51" s="6">
         <v>121</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="8">
         <v>2085</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="7">
         <v>5020101000</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="9">
         <v>2085</v>
       </c>
     </row>
@@ -2096,13 +2099,13 @@
       <c r="C52" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="0">
+      <c r="D52" s="6">
         <v>125</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2116,13 +2119,13 @@
       <c r="C53" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="0">
+      <c r="D53" s="6">
         <v>126</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2136,19 +2139,19 @@
       <c r="C54" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="0">
+      <c r="D54" s="6">
         <v>132</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="8">
         <v>3568.98</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="7">
         <v>5020502002</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="9">
         <v>3568.98</v>
       </c>
     </row>

--- a/BUDGET/excel_reports/ORSSUMMARY2.xlsx
+++ b/BUDGET/excel_reports/ORSSUMMARY2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>DATE</t>
   </si>
@@ -61,277 +61,736 @@
     <t>01/09/2019</t>
   </si>
   <si>
+    <t>T12-8435</t>
+  </si>
+  <si>
+    <t>ABELARD AÑANA</t>
+  </si>
+  <si>
+    <t>2018 HRH - DEP CONAP</t>
+  </si>
+  <si>
+    <t>01/10/2019</t>
+  </si>
+  <si>
+    <t>T12-8434</t>
+  </si>
+  <si>
+    <t>RENE LOFRANCO</t>
+  </si>
+  <si>
+    <t>T11-6581</t>
+  </si>
+  <si>
+    <t>JOCELYN TABOTABO</t>
+  </si>
+  <si>
+    <t>T12-8437</t>
+  </si>
+  <si>
+    <t>ANABELLE TAMBACAN</t>
+  </si>
+  <si>
+    <t>01/11/2019</t>
+  </si>
+  <si>
+    <t>T12-8523</t>
+  </si>
+  <si>
+    <t>LOURDES MARATAS</t>
+  </si>
+  <si>
+    <t>T12-8524</t>
+  </si>
+  <si>
+    <t>SAMUEL ATUAN</t>
+  </si>
+  <si>
+    <t>T12-8508</t>
+  </si>
+  <si>
+    <t>NIÑA KATRINA CADAPAN</t>
+  </si>
+  <si>
+    <t>T12-8467</t>
+  </si>
+  <si>
+    <t>TONEE ROSE PIL</t>
+  </si>
+  <si>
+    <t>T12-8474</t>
+  </si>
+  <si>
+    <t>CHERRY ROSE VILLAESTER</t>
+  </si>
+  <si>
+    <t>T12-8473</t>
+  </si>
+  <si>
+    <t>T12-8507</t>
+  </si>
+  <si>
+    <t>KAREN REGINO</t>
+  </si>
+  <si>
+    <t>T12-7355</t>
+  </si>
+  <si>
+    <t>CARMELA ROSALES</t>
+  </si>
+  <si>
+    <t>T12-8540</t>
+  </si>
+  <si>
+    <t>SIRC PATRICK AMORES</t>
+  </si>
+  <si>
+    <t>T12-8546</t>
+  </si>
+  <si>
+    <t>MARY CAPUCCINE MORALLOS</t>
+  </si>
+  <si>
+    <t>01/14/2019</t>
+  </si>
+  <si>
+    <t>T12-8469</t>
+  </si>
+  <si>
+    <t>T12-8468</t>
+  </si>
+  <si>
+    <t>JELLYVEE LAXINA</t>
+  </si>
+  <si>
+    <t>01/15/2019</t>
+  </si>
+  <si>
+    <t>T12-8563</t>
+  </si>
+  <si>
+    <t>HAZELLE LOPENA</t>
+  </si>
+  <si>
+    <t>T12-8566</t>
+  </si>
+  <si>
+    <t>BLAINE MELENDRES</t>
+  </si>
+  <si>
+    <t>T12-8456</t>
+  </si>
+  <si>
+    <t>ALLAN DEO PATENIO</t>
+  </si>
+  <si>
+    <t>T12-8565</t>
+  </si>
+  <si>
+    <t>HONEY LYN DANILA</t>
+  </si>
+  <si>
+    <t>T12-8582</t>
+  </si>
+  <si>
+    <t>FIEL ANGELIE HERNANDEZ</t>
+  </si>
+  <si>
+    <t>T12-8578</t>
+  </si>
+  <si>
+    <t>DOUGLAS VALLEJO JR.</t>
+  </si>
+  <si>
+    <t>T12-8506</t>
+  </si>
+  <si>
+    <t>CATHY ANNE MARIE RAMIREZ</t>
+  </si>
+  <si>
+    <t>01/18/2019</t>
+  </si>
+  <si>
+    <t>T12-8599</t>
+  </si>
+  <si>
+    <t>MAY SHISHA TORREON</t>
+  </si>
+  <si>
+    <t>T12-8600</t>
+  </si>
+  <si>
+    <t>NORY ANN ABUEVA</t>
+  </si>
+  <si>
+    <t>T12-8604</t>
+  </si>
+  <si>
+    <t>RUFFA DEL VALLE-ESTA_x0010_ÑO</t>
+  </si>
+  <si>
+    <t>T12-8596</t>
+  </si>
+  <si>
+    <t>MADELYN ATUP</t>
+  </si>
+  <si>
+    <t>T12-8597</t>
+  </si>
+  <si>
+    <t>MAYLUZEL QUILICOT</t>
+  </si>
+  <si>
+    <t>T12-8598</t>
+  </si>
+  <si>
+    <t>CHERYL INTE</t>
+  </si>
+  <si>
+    <t>T12-8594</t>
+  </si>
+  <si>
+    <t>ANALYN LITUB</t>
+  </si>
+  <si>
+    <t>T12-8603</t>
+  </si>
+  <si>
+    <t>FERNIE ANN ROSAROSO</t>
+  </si>
+  <si>
+    <t>T12-8595</t>
+  </si>
+  <si>
+    <t>HENRY NICHOLSON LABAJO</t>
+  </si>
+  <si>
+    <t>T12-8465</t>
+  </si>
+  <si>
+    <t>T12-8592</t>
+  </si>
+  <si>
+    <t>CHENNY ATON</t>
+  </si>
+  <si>
+    <t>T12-8608</t>
+  </si>
+  <si>
+    <t>MIGUELA CAHAYAG</t>
+  </si>
+  <si>
+    <t>T12-8466</t>
+  </si>
+  <si>
+    <t>01/22/2019</t>
+  </si>
+  <si>
+    <t>T12-8612</t>
+  </si>
+  <si>
+    <t>MARIA CHONA M. SINGCO</t>
+  </si>
+  <si>
+    <t>T12-8605</t>
+  </si>
+  <si>
+    <t>HENRY NICHOLSON C. LABAJO</t>
+  </si>
+  <si>
+    <t>01/23/2019</t>
+  </si>
+  <si>
+    <t>S01-112</t>
+  </si>
+  <si>
+    <t>INNOVE COMMUNICATIONS</t>
+  </si>
+  <si>
+    <t>2018 PHM CONAP</t>
+  </si>
+  <si>
+    <t>T12-8606</t>
+  </si>
+  <si>
+    <t>GIEFRED REGNER, ET AL</t>
+  </si>
+  <si>
+    <t>T12-8607</t>
+  </si>
+  <si>
+    <t>LETECIA YECYEC, ET AL</t>
+  </si>
+  <si>
+    <t>T12-8586</t>
+  </si>
+  <si>
+    <t>DAVILYN AGUR</t>
+  </si>
+  <si>
+    <t>T12-8588</t>
+  </si>
+  <si>
+    <t>MYRA LEONORA SALVALEON</t>
+  </si>
+  <si>
+    <t>T12-8589</t>
+  </si>
+  <si>
+    <t>MERCY GRACE BONCALES</t>
+  </si>
+  <si>
+    <t>T12-8590</t>
+  </si>
+  <si>
+    <t>T12-8591</t>
+  </si>
+  <si>
+    <t>ABELARD A_x0010_ÑANA</t>
+  </si>
+  <si>
+    <t>T12-8577</t>
+  </si>
+  <si>
+    <t>KEEM REDULA ENRERA</t>
+  </si>
+  <si>
+    <t>01/16/2019</t>
+  </si>
+  <si>
+    <t>S01-0072</t>
+  </si>
+  <si>
+    <t>PLDT, INC.</t>
+  </si>
+  <si>
+    <t>S01-0074</t>
+  </si>
+  <si>
+    <t>S01-0073</t>
+  </si>
+  <si>
+    <t>T12-7751</t>
+  </si>
+  <si>
+    <t>AUDREY ANNE NAJARRO-DIAZ</t>
+  </si>
+  <si>
+    <t>T12-7752</t>
+  </si>
+  <si>
+    <t>ELMER KENT LOPEZ</t>
+  </si>
+  <si>
+    <t>T12-7753</t>
+  </si>
+  <si>
+    <t>RAMON NAJARRO</t>
+  </si>
+  <si>
+    <t>T12-8522</t>
+  </si>
+  <si>
+    <t>RONADIT ARRIESGADO</t>
+  </si>
+  <si>
+    <t>01/17/2019</t>
+  </si>
+  <si>
+    <t>S01-0078</t>
+  </si>
+  <si>
+    <t>VECO</t>
+  </si>
+  <si>
+    <t>S01-0077</t>
+  </si>
+  <si>
+    <t>S01-0076</t>
+  </si>
+  <si>
+    <t>S01-0079</t>
+  </si>
+  <si>
+    <t>S01-0083</t>
+  </si>
+  <si>
+    <t>LBC EXPRESS INCORPORATED</t>
+  </si>
+  <si>
+    <t>S01-0082</t>
+  </si>
+  <si>
+    <t>S01-0081</t>
+  </si>
+  <si>
+    <t>S01-0089</t>
+  </si>
+  <si>
+    <t>INNOVE COMMUNICATIONS, INC.</t>
+  </si>
+  <si>
+    <t>T12-8587</t>
+  </si>
+  <si>
+    <t>T12-8529</t>
+  </si>
+  <si>
+    <t>ELIZABETH TABASA</t>
+  </si>
+  <si>
+    <t>T12-8564</t>
+  </si>
+  <si>
+    <t>CATHERINE NISTAL</t>
+  </si>
+  <si>
+    <t>S01-0070</t>
+  </si>
+  <si>
+    <t>S01-0071</t>
+  </si>
+  <si>
+    <t>S12-3470</t>
+  </si>
+  <si>
+    <t>S01-0069</t>
+  </si>
+  <si>
+    <t>S01-0068</t>
+  </si>
+  <si>
+    <t>S01-0067</t>
+  </si>
+  <si>
+    <t>S01-0066</t>
+  </si>
+  <si>
+    <t>S01-0065</t>
+  </si>
+  <si>
+    <t>S01-0064</t>
+  </si>
+  <si>
+    <t>S01-0063</t>
+  </si>
+  <si>
+    <t>T12-8462</t>
+  </si>
+  <si>
+    <t>ROSE ANNE REROMA</t>
+  </si>
+  <si>
+    <t>T12-8541</t>
+  </si>
+  <si>
+    <t>MYLENE INFANTE</t>
+  </si>
+  <si>
+    <t>S01-0062</t>
+  </si>
+  <si>
+    <t>S01-0060</t>
+  </si>
+  <si>
+    <t>S01-0059</t>
+  </si>
+  <si>
+    <t>T12-8545</t>
+  </si>
+  <si>
+    <t>FLORENCE PILAS</t>
+  </si>
+  <si>
+    <t>T12-8509</t>
+  </si>
+  <si>
+    <t>T12-8511</t>
+  </si>
+  <si>
+    <t>T12-8510</t>
+  </si>
+  <si>
+    <t>T01-0007</t>
+  </si>
+  <si>
+    <t>THELMA AMANTE</t>
+  </si>
+  <si>
+    <t>T01-0006</t>
+  </si>
+  <si>
+    <t>STEPHEN CINCOFLORES</t>
+  </si>
+  <si>
+    <t>S12-3456</t>
+  </si>
+  <si>
+    <t>SMART COMMUNICATIONS, INC.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TRIMAX COMPUTER SUPPLIES &amp; GEN. MERCHANDISE</t>
+  </si>
+  <si>
+    <t>T12-8463</t>
+  </si>
+  <si>
+    <t>ALMA LUDALIN NABOYA</t>
+  </si>
+  <si>
+    <t>T12-8432</t>
+  </si>
+  <si>
+    <t>SIMPLICIO TORREON</t>
+  </si>
+  <si>
     <t>T12-8464</t>
   </si>
   <si>
-    <t>ALMA LUDALIN NABOYA</t>
-  </si>
-  <si>
-    <t>2018 PHM CONAP</t>
-  </si>
-  <si>
-    <t>T12-8463</t>
-  </si>
-  <si>
-    <t>01/10/2019</t>
-  </si>
-  <si>
-    <t>T12-8432</t>
-  </si>
-  <si>
-    <t>SIMPLICIO TORREON</t>
-  </si>
-  <si>
-    <t>01/11/2019</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>TRIMAX COMPUTER SUPPLIES &amp; GEN. MERCHANDISE</t>
-  </si>
-  <si>
-    <t>S12-3456</t>
-  </si>
-  <si>
-    <t>SMART COMMUNICATIONS, INC.</t>
-  </si>
-  <si>
-    <t>T12-8509</t>
-  </si>
-  <si>
-    <t>CARMELA ROSALES</t>
-  </si>
-  <si>
-    <t>T12-8511</t>
-  </si>
-  <si>
-    <t>T12-8510</t>
-  </si>
-  <si>
-    <t>T01-0007</t>
-  </si>
-  <si>
-    <t>THELMA AMANTE</t>
-  </si>
-  <si>
-    <t>T01-0006</t>
-  </si>
-  <si>
-    <t>STEPHEN CINCOFLORES</t>
-  </si>
-  <si>
-    <t>T12-8545</t>
-  </si>
-  <si>
-    <t>FLORENCE PILAS</t>
-  </si>
-  <si>
-    <t>T12-8462</t>
-  </si>
-  <si>
-    <t>ROSE ANNE REROMA</t>
-  </si>
-  <si>
-    <t>01/14/2019</t>
-  </si>
-  <si>
-    <t>T12-8541</t>
-  </si>
-  <si>
-    <t>MYLENE INFANTE</t>
-  </si>
-  <si>
-    <t>01/15/2019</t>
-  </si>
-  <si>
-    <t>S12-3470</t>
-  </si>
-  <si>
-    <t>LBC EXPRESS INCORPORATED</t>
-  </si>
-  <si>
-    <t>S01-0069</t>
-  </si>
-  <si>
-    <t>PLDT, INC.</t>
-  </si>
-  <si>
-    <t>S01-0068</t>
-  </si>
-  <si>
-    <t>S01-0067</t>
-  </si>
-  <si>
-    <t>INNOVE COMMUNICATIONS, INC.</t>
-  </si>
-  <si>
-    <t>S01-0066</t>
-  </si>
-  <si>
-    <t>S01-0065</t>
-  </si>
-  <si>
-    <t>S01-0064</t>
-  </si>
-  <si>
-    <t>S01-0063</t>
-  </si>
-  <si>
-    <t>S01-0062</t>
-  </si>
-  <si>
-    <t>S01-0060</t>
-  </si>
-  <si>
-    <t>S01-0059</t>
-  </si>
-  <si>
-    <t>T12-8529</t>
-  </si>
-  <si>
-    <t>ELIZABETH TABASA</t>
-  </si>
-  <si>
-    <t>S01-0070</t>
-  </si>
-  <si>
-    <t>S01-0071</t>
-  </si>
-  <si>
-    <t>T12-8564</t>
-  </si>
-  <si>
-    <t>CATHERINE NISTAL</t>
-  </si>
-  <si>
-    <t>T12-8577</t>
-  </si>
-  <si>
-    <t>KEEM REDULA ENRERA</t>
-  </si>
-  <si>
-    <t>01/16/2019</t>
-  </si>
-  <si>
-    <t>S01-0072</t>
-  </si>
-  <si>
-    <t>S01-0074</t>
-  </si>
-  <si>
-    <t>S01-0073</t>
-  </si>
-  <si>
-    <t>T12-7751</t>
-  </si>
-  <si>
-    <t>AUDREY ANNE NAJARRO-DIAZ</t>
-  </si>
-  <si>
-    <t>T12-7752</t>
-  </si>
-  <si>
-    <t>ELMER KENT LOPEZ</t>
-  </si>
-  <si>
-    <t>T12-7753</t>
-  </si>
-  <si>
-    <t>RAMON NAJARRO</t>
-  </si>
-  <si>
-    <t>T12-8522</t>
-  </si>
-  <si>
-    <t>RONADIT ARRIESGADO</t>
-  </si>
-  <si>
-    <t>01/17/2019</t>
-  </si>
-  <si>
-    <t>S01-0078</t>
-  </si>
-  <si>
-    <t>VECO</t>
-  </si>
-  <si>
-    <t>S01-0077</t>
-  </si>
-  <si>
-    <t>S01-0076</t>
-  </si>
-  <si>
-    <t>S01-0079</t>
-  </si>
-  <si>
-    <t>S01-0083</t>
-  </si>
-  <si>
-    <t>S01-0082</t>
-  </si>
-  <si>
-    <t>S01-0081</t>
-  </si>
-  <si>
-    <t>01/18/2019</t>
-  </si>
-  <si>
-    <t>S01-0089</t>
-  </si>
-  <si>
-    <t>T12-8587</t>
-  </si>
-  <si>
-    <t>MERCY GRACE BONCALES</t>
-  </si>
-  <si>
-    <t>T12-8589</t>
-  </si>
-  <si>
-    <t>T12-8590</t>
-  </si>
-  <si>
-    <t>ABELARD AÑANA</t>
-  </si>
-  <si>
-    <t>T12-8591</t>
-  </si>
-  <si>
-    <t>ABELARD A_x0010_ÑANA</t>
-  </si>
-  <si>
-    <t>T12-8586</t>
-  </si>
-  <si>
-    <t>DAVILYN AGUR</t>
-  </si>
-  <si>
-    <t>T12-8588</t>
-  </si>
-  <si>
-    <t>MYRA LEONORA SALVALEON</t>
-  </si>
-  <si>
-    <t>T12-8606</t>
-  </si>
-  <si>
-    <t>GIEFRED REGNER, ET AL</t>
-  </si>
-  <si>
-    <t>T12-8607</t>
-  </si>
-  <si>
-    <t>LETECIA YECYEC, ET AL</t>
-  </si>
-  <si>
-    <t>01/23/2019</t>
-  </si>
-  <si>
-    <t>S01-112</t>
-  </si>
-  <si>
-    <t>INNOVE COMMUNICATIONS</t>
+    <t>S01-0061</t>
+  </si>
+  <si>
+    <t>2018 RRHFS CONAP</t>
+  </si>
+  <si>
+    <t>T01-0010</t>
+  </si>
+  <si>
+    <t>CLAUDETTE MAE FLORES</t>
+  </si>
+  <si>
+    <t>S01-107</t>
+  </si>
+  <si>
+    <t>T12-8616</t>
+  </si>
+  <si>
+    <t>NELSON NAVARRO</t>
+  </si>
+  <si>
+    <t>SAA# 2018-02-0090 CONAP</t>
+  </si>
+  <si>
+    <t>S01-0056</t>
+  </si>
+  <si>
+    <t>MACTAN DOCTORS HOSPITAL</t>
+  </si>
+  <si>
+    <t>T12-8570</t>
+  </si>
+  <si>
+    <t>CRISTINA COMENDADOR</t>
+  </si>
+  <si>
+    <t>T12-8569</t>
+  </si>
+  <si>
+    <t>AIDA CASES</t>
+  </si>
+  <si>
+    <t>T12-8537</t>
+  </si>
+  <si>
+    <t>SHELBAY BLANCO</t>
+  </si>
+  <si>
+    <t>S12-3468</t>
+  </si>
+  <si>
+    <t>CEBU DOCTORS UNIVERSITY HOSPITAL</t>
+  </si>
+  <si>
+    <t>T12-8585</t>
+  </si>
+  <si>
+    <t>ROWENA C. QUILAB</t>
+  </si>
+  <si>
+    <t>SAA# 2018-03-0309 CONAP</t>
+  </si>
+  <si>
+    <t>PROVINCIAL GOVERNMENT OF BOHOL</t>
+  </si>
+  <si>
+    <t>SAA# 2018-03-0455 CONAP</t>
+  </si>
+  <si>
+    <t>T12-8567</t>
+  </si>
+  <si>
+    <t>SAA# 2018-03-0528 CONAP</t>
+  </si>
+  <si>
+    <t>T12-8538</t>
+  </si>
+  <si>
+    <t>T12-8574</t>
+  </si>
+  <si>
+    <t>JONATHAN NEIL ERASMO</t>
+  </si>
+  <si>
+    <t>SAA# 2018-03-0537 CONAP</t>
+  </si>
+  <si>
+    <t>T12-8502</t>
+  </si>
+  <si>
+    <t>KAYE CARINA ANG</t>
+  </si>
+  <si>
+    <t>T12-8475</t>
+  </si>
+  <si>
+    <t>MIKE JACYN SAGUIN</t>
+  </si>
+  <si>
+    <t>T12-8477</t>
+  </si>
+  <si>
+    <t>JENNEVIE LALICAN</t>
+  </si>
+  <si>
+    <t>T12-8479</t>
+  </si>
+  <si>
+    <t>ROSE MARGARETTE ORTEGA</t>
+  </si>
+  <si>
+    <t>T12-8488</t>
+  </si>
+  <si>
+    <t>ROSTAN PESTOLANTE</t>
+  </si>
+  <si>
+    <t>T12-8478</t>
+  </si>
+  <si>
+    <t>T12-8476</t>
+  </si>
+  <si>
+    <t>MATTHEW ADRIAN LONGINOS</t>
+  </si>
+  <si>
+    <t>T12-8503</t>
+  </si>
+  <si>
+    <t>T12-8609</t>
+  </si>
+  <si>
+    <t>KAY CARINA ANG</t>
+  </si>
+  <si>
+    <t>T12-8611</t>
+  </si>
+  <si>
+    <t>STEVEN RITZ GONZALVE</t>
+  </si>
+  <si>
+    <t>T12-8593</t>
+  </si>
+  <si>
+    <t>KAREN PACATANG</t>
+  </si>
+  <si>
+    <t>SAA# 2018-04-0699 CONAP</t>
+  </si>
+  <si>
+    <t>T12-8601</t>
+  </si>
+  <si>
+    <t>MARIA RICA TAGO</t>
+  </si>
+  <si>
+    <t>T12-8602</t>
+  </si>
+  <si>
+    <t>JOCELYN PANTINOPLE</t>
+  </si>
+  <si>
+    <t>T12-8547</t>
+  </si>
+  <si>
+    <t>T12-8470</t>
+  </si>
+  <si>
+    <t>NIÑA JANE POTOT</t>
+  </si>
+  <si>
+    <t>SAA# 2018-05-0973 CONAP</t>
+  </si>
+  <si>
+    <t>CITY OF LAPU-LAPU</t>
+  </si>
+  <si>
+    <t>T12-8438</t>
+  </si>
+  <si>
+    <t>MARITES GRACE SALINGSING</t>
+  </si>
+  <si>
+    <t>SAA# 2018-05-1019 CONAP</t>
+  </si>
+  <si>
+    <t>T01-0013</t>
+  </si>
+  <si>
+    <t>ANGELIE BROOK CEJUDO</t>
+  </si>
+  <si>
+    <t>S01-0054</t>
+  </si>
+  <si>
+    <t>JUAN B. DOSADO MEMORIAL HOSPITAL</t>
+  </si>
+  <si>
+    <t>SAA# 2018-07-1251 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-08-1302 CONAP</t>
+  </si>
+  <si>
+    <t>T12-7974</t>
+  </si>
+  <si>
+    <t>PAMELA IDA DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>SAA# 2018-10-1632 CONAP</t>
+  </si>
+  <si>
+    <t>T12-8553</t>
+  </si>
+  <si>
+    <t>LEONIDAS SANIEL</t>
+  </si>
+  <si>
+    <t>T12-8559</t>
+  </si>
+  <si>
+    <t>TERESITA SARIGUMBA</t>
+  </si>
+  <si>
+    <t>T12-8555</t>
+  </si>
+  <si>
+    <t>MA. JOSIANE PEPITO</t>
+  </si>
+  <si>
+    <t>T12-8554</t>
+  </si>
+  <si>
+    <t>MILAGROS ISRAEL</t>
+  </si>
+  <si>
+    <t>T12-8551</t>
+  </si>
+  <si>
+    <t>ANGELITA MALERIADO</t>
   </si>
 </sst>
 </file>
@@ -697,7 +1156,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -776,82 +1235,76 @@
         <v>16</v>
       </c>
       <c r="D2" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8">
-        <v>1150</v>
+        <v>1920</v>
       </c>
       <c r="G2" s="7">
         <v>5020101000</v>
       </c>
       <c r="H2" s="9">
-        <v>650</v>
-      </c>
-      <c r="I2" s="7">
-        <v>5020201002</v>
-      </c>
-      <c r="J2" s="9">
-        <v>500</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="8">
-        <v>3500</v>
+        <v>2145</v>
       </c>
       <c r="G3" s="7">
         <v>5020101000</v>
       </c>
       <c r="H3" s="9">
-        <v>3500</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="8">
-        <v>620</v>
+        <v>3155</v>
       </c>
       <c r="G4" s="7">
         <v>5020101000</v>
       </c>
       <c r="H4" s="9">
-        <v>620</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>23</v>
@@ -860,258 +1313,258 @@
         <v>24</v>
       </c>
       <c r="D5" s="6">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="8">
-        <v>100000</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7">
-        <v>5020301002</v>
+        <v>5020101000</v>
       </c>
       <c r="H5" s="9">
-        <v>100000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6">
         <v>25</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="6">
-        <v>22</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="8">
-        <v>4516.31</v>
+        <v>1420</v>
       </c>
       <c r="G6" s="7">
-        <v>5020502001</v>
+        <v>5020101000</v>
       </c>
       <c r="H6" s="9">
-        <v>4516.31</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="8">
-        <v>1515</v>
+        <v>2880</v>
       </c>
       <c r="G7" s="7">
         <v>5020101000</v>
       </c>
       <c r="H7" s="9">
-        <v>1515</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="8">
-        <v>3950</v>
+        <v>1944</v>
       </c>
       <c r="G8" s="7">
         <v>5020101000</v>
       </c>
       <c r="H8" s="9">
-        <v>3950</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="8">
-        <v>2945</v>
+        <v>795</v>
       </c>
       <c r="G9" s="7">
         <v>5020101000</v>
       </c>
       <c r="H9" s="9">
-        <v>2945</v>
+        <v>795</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="8">
-        <v>3114</v>
+        <v>860</v>
       </c>
       <c r="G10" s="7">
         <v>5020101000</v>
       </c>
       <c r="H10" s="9">
-        <v>3114</v>
+        <v>860</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="8">
-        <v>3185</v>
+        <v>860</v>
       </c>
       <c r="G11" s="7">
         <v>5020101000</v>
       </c>
       <c r="H11" s="9">
-        <v>3185</v>
+        <v>860</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="6">
         <v>36</v>
-      </c>
-      <c r="D12" s="6">
-        <v>41</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="8">
-        <v>2265</v>
+        <v>1991</v>
       </c>
       <c r="G12" s="7">
         <v>5020101000</v>
       </c>
       <c r="H12" s="9">
-        <v>2265</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="6">
         <v>38</v>
-      </c>
-      <c r="D13" s="6">
-        <v>43</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="8">
-        <v>1800</v>
+        <v>3980</v>
       </c>
       <c r="G13" s="7">
         <v>5020101000</v>
       </c>
       <c r="H13" s="9">
-        <v>1800</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="6">
         <v>39</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="6">
-        <v>46</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="8">
-        <v>2922</v>
+        <v>2219</v>
       </c>
       <c r="G14" s="7">
         <v>5020101000</v>
       </c>
       <c r="H14" s="9">
-        <v>2922</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>43</v>
@@ -1120,1039 +1573,3093 @@
         <v>44</v>
       </c>
       <c r="D15" s="6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="8">
-        <v>27321.88</v>
+        <v>1615</v>
       </c>
       <c r="G15" s="7">
-        <v>5020501000</v>
+        <v>5020101000</v>
       </c>
       <c r="H15" s="9">
-        <v>27321.88</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D16" s="6">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="8">
-        <v>1048.78</v>
+        <v>860</v>
       </c>
       <c r="G16" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H16" s="9">
-        <v>1048.78</v>
+        <v>860</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="6">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="8">
-        <v>1048.78</v>
+        <v>860</v>
       </c>
       <c r="G17" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H17" s="9">
-        <v>1048.78</v>
+        <v>860</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" s="6">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="8">
-        <v>887.99</v>
+        <v>2915</v>
       </c>
       <c r="G18" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H18" s="9">
-        <v>887.99</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D19" s="6">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="8">
-        <v>1099.49</v>
+        <v>2102</v>
       </c>
       <c r="G19" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H19" s="9">
-        <v>1099.49</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D20" s="6">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="8">
-        <v>887.99</v>
+        <v>1559</v>
       </c>
       <c r="G20" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H20" s="9">
-        <v>887.99</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D21" s="6">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="8">
-        <v>47040</v>
+        <v>2585</v>
       </c>
       <c r="G21" s="7">
-        <v>5020503000</v>
+        <v>5020101000</v>
       </c>
       <c r="H21" s="9">
-        <v>47040</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D22" s="6">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="8">
-        <v>1489.48</v>
+        <v>2155</v>
       </c>
       <c r="G22" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H22" s="9">
-        <v>1489.48</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D23" s="6">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="8">
-        <v>1256.99</v>
+        <v>1170</v>
       </c>
       <c r="G23" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H23" s="9">
-        <v>1256.99</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D24" s="6">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="8">
-        <v>1134.49</v>
+        <v>760</v>
       </c>
       <c r="G24" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H24" s="9">
-        <v>1134.49</v>
+        <v>760</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D25" s="6">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="8">
-        <v>887.99</v>
+        <v>1140</v>
       </c>
       <c r="G25" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H25" s="9">
-        <v>887.99</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D26" s="6">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="8">
-        <v>58548.25</v>
+        <v>1745</v>
       </c>
       <c r="G26" s="7">
-        <v>5020301002</v>
+        <v>5020101000</v>
       </c>
       <c r="H26" s="9">
-        <v>26936.25</v>
-      </c>
-      <c r="I26" s="7">
-        <v>5020321003</v>
-      </c>
-      <c r="J26" s="9">
-        <v>18490</v>
-      </c>
-      <c r="K26" s="7">
-        <v>5021304001</v>
-      </c>
-      <c r="L26" s="9">
-        <v>6749</v>
-      </c>
-      <c r="M26" s="7">
-        <v>5021307000</v>
-      </c>
-      <c r="N26" s="9">
-        <v>6373</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D27" s="6">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="8">
-        <v>1216.78</v>
+        <v>1690</v>
       </c>
       <c r="G27" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H27" s="9">
-        <v>1216.78</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D28" s="6">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="8">
-        <v>1688.98</v>
+        <v>1705</v>
       </c>
       <c r="G28" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H28" s="9">
-        <v>1688.98</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D29" s="6">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="8">
-        <v>2585</v>
+        <v>1140</v>
       </c>
       <c r="G29" s="7">
         <v>5020101000</v>
       </c>
       <c r="H29" s="9">
-        <v>2585</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D30" s="6">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="8">
-        <v>1005</v>
+        <v>1745</v>
       </c>
       <c r="G30" s="7">
         <v>5020101000</v>
       </c>
       <c r="H30" s="9">
-        <v>1005</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D31" s="6">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="8">
-        <v>4148.26</v>
+        <v>1265</v>
       </c>
       <c r="G31" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H31" s="9">
-        <v>4148.26</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D32" s="6">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="8">
-        <v>2113.36</v>
+        <v>1360</v>
       </c>
       <c r="G32" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H32" s="9">
-        <v>2113.36</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D33" s="6">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="8">
-        <v>2147.75</v>
+        <v>1670</v>
       </c>
       <c r="G33" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H33" s="9">
-        <v>2147.75</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D34" s="6">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="8">
-        <v>6035</v>
+        <v>565</v>
       </c>
       <c r="G34" s="7">
-        <v>5020201002</v>
+        <v>5020101000</v>
       </c>
       <c r="H34" s="9">
-        <v>6035</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D35" s="6">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F35" s="8">
-        <v>13487.02</v>
+        <v>885</v>
       </c>
       <c r="G35" s="7">
-        <v>5020201002</v>
+        <v>5020101000</v>
       </c>
       <c r="H35" s="9">
-        <v>13487.02</v>
+        <v>885</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D36" s="6">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="8">
-        <v>15168.77</v>
+        <v>1000</v>
       </c>
       <c r="G36" s="7">
-        <v>5020201002</v>
+        <v>5020101000</v>
       </c>
       <c r="H36" s="9">
-        <v>15168.77</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="D37" s="6">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="8">
-        <v>1460</v>
-      </c>
-      <c r="G37" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H37" s="9">
-        <v>1460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D38" s="6">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="8">
-        <v>46761.68</v>
+        <v>1450</v>
       </c>
       <c r="G38" s="7">
-        <v>5020402000</v>
+        <v>5020101000</v>
       </c>
       <c r="H38" s="9">
-        <v>46761.68</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D39" s="6">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F39" s="8">
-        <v>85517.4</v>
+        <v>1660</v>
       </c>
       <c r="G39" s="7">
-        <v>5020402000</v>
+        <v>5020101000</v>
       </c>
       <c r="H39" s="9">
-        <v>85517.4</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="D40" s="6">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F40" s="8">
-        <v>10640</v>
+        <v>3568.98</v>
       </c>
       <c r="G40" s="7">
-        <v>5020503000</v>
+        <v>5020502002</v>
       </c>
       <c r="H40" s="9">
-        <v>10640</v>
+        <v>3568.98</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D41" s="6">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F41" s="8">
-        <v>130781.99</v>
-      </c>
-      <c r="G41" s="7">
-        <v>5020402000</v>
-      </c>
-      <c r="H41" s="9">
-        <v>130781.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="D42" s="6">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F42" s="8">
-        <v>33323.94</v>
-      </c>
-      <c r="G42" s="7">
-        <v>5029904000</v>
-      </c>
-      <c r="H42" s="9">
-        <v>33323.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="D43" s="6">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F43" s="8">
-        <v>2203.62</v>
+        <v>1080</v>
       </c>
       <c r="G43" s="7">
-        <v>5029904000</v>
+        <v>5020101000</v>
       </c>
       <c r="H43" s="9">
-        <v>2203.62</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="D44" s="6">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F44" s="8">
-        <v>366557.9</v>
+        <v>2085</v>
       </c>
       <c r="G44" s="7">
-        <v>5029904000</v>
+        <v>5020101000</v>
       </c>
       <c r="H44" s="9">
-        <v>366557.9</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="D45" s="6">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F45" s="8">
-        <v>1487.96</v>
+        <v>880</v>
       </c>
       <c r="G45" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H45" s="9">
-        <v>1487.96</v>
+        <v>880</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D46" s="6">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F46" s="8">
-        <v>440</v>
+        <v>1010</v>
       </c>
       <c r="G46" s="7">
         <v>5020101000</v>
       </c>
       <c r="H46" s="9">
-        <v>440</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D47" s="6">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F47" s="8">
-        <v>880</v>
+        <v>1010</v>
       </c>
       <c r="G47" s="7">
         <v>5020101000</v>
       </c>
       <c r="H47" s="9">
-        <v>880</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D48" s="6">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F48" s="8">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="G48" s="7">
         <v>5020101000</v>
       </c>
       <c r="H48" s="9">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D49" s="6">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F49" s="8">
-        <v>1010</v>
+        <v>4148.26</v>
       </c>
       <c r="G49" s="7">
-        <v>5020101000</v>
+        <v>5020502002</v>
       </c>
       <c r="H49" s="9">
-        <v>1010</v>
+        <v>4148.26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="6">
         <v>86</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="6">
-        <v>120</v>
-      </c>
       <c r="E50" s="0" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F50" s="8">
-        <v>1080</v>
+        <v>2113.36</v>
       </c>
       <c r="G50" s="7">
-        <v>5020101000</v>
+        <v>5020502002</v>
       </c>
       <c r="H50" s="9">
-        <v>1080</v>
+        <v>2113.36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D51" s="6">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F51" s="8">
-        <v>2085</v>
+        <v>2147.75</v>
       </c>
       <c r="G51" s="7">
-        <v>5020101000</v>
+        <v>5020502002</v>
       </c>
       <c r="H51" s="9">
-        <v>2085</v>
+        <v>2147.75</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D52" s="6">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F52" s="8">
-        <v>0</v>
+        <v>6035</v>
+      </c>
+      <c r="G52" s="7">
+        <v>5020201002</v>
+      </c>
+      <c r="H52" s="9">
+        <v>6035</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D53" s="6">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F53" s="8">
-        <v>0</v>
+        <v>13487.02</v>
+      </c>
+      <c r="G53" s="7">
+        <v>5020201002</v>
+      </c>
+      <c r="H53" s="9">
+        <v>13487.02</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D54" s="6">
+        <v>91</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="8">
+        <v>15168.77</v>
+      </c>
+      <c r="G54" s="7">
+        <v>5020201002</v>
+      </c>
+      <c r="H54" s="9">
+        <v>15168.77</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="6">
+        <v>92</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55" s="8">
+        <v>1460</v>
+      </c>
+      <c r="G55" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H55" s="9">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="6">
+        <v>93</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="8">
+        <v>46761.68</v>
+      </c>
+      <c r="G56" s="7">
+        <v>5020402000</v>
+      </c>
+      <c r="H56" s="9">
+        <v>46761.68</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="6">
+        <v>94</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57" s="8">
+        <v>85517.4</v>
+      </c>
+      <c r="G57" s="7">
+        <v>5020402000</v>
+      </c>
+      <c r="H57" s="9">
+        <v>85517.4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="6">
+        <v>95</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" s="8">
+        <v>10640</v>
+      </c>
+      <c r="G58" s="7">
+        <v>5020503000</v>
+      </c>
+      <c r="H58" s="9">
+        <v>10640</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="6">
+        <v>96</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="8">
+        <v>130781.99</v>
+      </c>
+      <c r="G59" s="7">
+        <v>5020402000</v>
+      </c>
+      <c r="H59" s="9">
+        <v>130781.99</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="C60" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="6">
+        <v>97</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" s="8">
+        <v>33323.94</v>
+      </c>
+      <c r="G60" s="7">
+        <v>5029904000</v>
+      </c>
+      <c r="H60" s="9">
+        <v>33323.94</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="6">
+        <v>98</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61" s="8">
+        <v>2203.62</v>
+      </c>
+      <c r="G61" s="7">
+        <v>5029904000</v>
+      </c>
+      <c r="H61" s="9">
+        <v>2203.62</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="6">
+        <v>99</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" s="8">
+        <v>366557.9</v>
+      </c>
+      <c r="G62" s="7">
+        <v>5029904000</v>
+      </c>
+      <c r="H62" s="9">
+        <v>366557.9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" s="6">
+        <v>100</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1487.96</v>
+      </c>
+      <c r="G63" s="7">
+        <v>5020502002</v>
+      </c>
+      <c r="H63" s="9">
+        <v>1487.96</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="6">
+        <v>101</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64" s="8">
+        <v>440</v>
+      </c>
+      <c r="G64" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H64" s="9">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="6">
+        <v>63</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F65" s="8">
+        <v>58548.25</v>
+      </c>
+      <c r="G65" s="7">
+        <v>5020301002</v>
+      </c>
+      <c r="H65" s="9">
+        <v>26936.25</v>
+      </c>
+      <c r="I65" s="7">
+        <v>5020321003</v>
+      </c>
+      <c r="J65" s="9">
+        <v>18490</v>
+      </c>
+      <c r="K65" s="7">
+        <v>5021304001</v>
+      </c>
+      <c r="L65" s="9">
+        <v>6749</v>
+      </c>
+      <c r="M65" s="7">
+        <v>5021307000</v>
+      </c>
+      <c r="N65" s="9">
+        <v>6373</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="6">
+        <v>72</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F66" s="8">
+        <v>2585</v>
+      </c>
+      <c r="G66" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H66" s="9">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="6">
+        <v>65</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="8">
+        <v>1216.78</v>
+      </c>
+      <c r="G67" s="7">
+        <v>5020502002</v>
+      </c>
+      <c r="H67" s="9">
+        <v>1216.78</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="6">
+        <v>66</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F68" s="8">
+        <v>1688.98</v>
+      </c>
+      <c r="G68" s="7">
+        <v>5020502002</v>
+      </c>
+      <c r="H68" s="9">
+        <v>1688.98</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="6">
+        <v>50</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69" s="8">
+        <v>27321.88</v>
+      </c>
+      <c r="G69" s="7">
+        <v>5020501000</v>
+      </c>
+      <c r="H69" s="9">
+        <v>27321.88</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="6">
+        <v>51</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="8">
+        <v>1048.78</v>
+      </c>
+      <c r="G70" s="7">
+        <v>5020502002</v>
+      </c>
+      <c r="H70" s="9">
+        <v>1048.78</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="6">
+        <v>52</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F71" s="8">
+        <v>1048.78</v>
+      </c>
+      <c r="G71" s="7">
+        <v>5020502002</v>
+      </c>
+      <c r="H71" s="9">
+        <v>1048.78</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="6">
+        <v>53</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="8">
+        <v>887.99</v>
+      </c>
+      <c r="G72" s="7">
+        <v>5020502002</v>
+      </c>
+      <c r="H72" s="9">
+        <v>887.99</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="6">
+        <v>54</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73" s="8">
+        <v>1099.49</v>
+      </c>
+      <c r="G73" s="7">
+        <v>5020502002</v>
+      </c>
+      <c r="H73" s="9">
+        <v>1099.49</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="6">
+        <v>55</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74" s="8">
+        <v>887.99</v>
+      </c>
+      <c r="G74" s="7">
+        <v>5020502002</v>
+      </c>
+      <c r="H74" s="9">
+        <v>887.99</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75" s="6">
+        <v>56</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F75" s="8">
+        <v>47040</v>
+      </c>
+      <c r="G75" s="7">
+        <v>5020503000</v>
+      </c>
+      <c r="H75" s="9">
+        <v>47040</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="6">
+        <v>57</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" s="8">
+        <v>1489.48</v>
+      </c>
+      <c r="G76" s="7">
+        <v>5020502002</v>
+      </c>
+      <c r="H76" s="9">
+        <v>1489.48</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="6">
+        <v>43</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F77" s="8">
+        <v>1800</v>
+      </c>
+      <c r="G77" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H77" s="9">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D78" s="6">
+        <v>46</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F78" s="8">
+        <v>2922</v>
+      </c>
+      <c r="G78" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H78" s="9">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="6">
+        <v>59</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F79" s="8">
+        <v>1256.99</v>
+      </c>
+      <c r="G79" s="7">
+        <v>5020502002</v>
+      </c>
+      <c r="H79" s="9">
+        <v>1256.99</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D80" s="6">
+        <v>60</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80" s="8">
+        <v>1134.49</v>
+      </c>
+      <c r="G80" s="7">
+        <v>5020502002</v>
+      </c>
+      <c r="H80" s="9">
+        <v>1134.49</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D81" s="6">
+        <v>61</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F81" s="8">
+        <v>887.99</v>
+      </c>
+      <c r="G81" s="7">
+        <v>5020502002</v>
+      </c>
+      <c r="H81" s="9">
+        <v>887.99</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" s="6">
+        <v>41</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F82" s="8">
+        <v>2265</v>
+      </c>
+      <c r="G82" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H82" s="9">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" s="6">
+        <v>27</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F83" s="8">
+        <v>1515</v>
+      </c>
+      <c r="G83" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H83" s="9">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="6">
+        <v>28</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F84" s="8">
+        <v>3950</v>
+      </c>
+      <c r="G84" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H84" s="9">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="6">
+        <v>29</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F85" s="8">
+        <v>2945</v>
+      </c>
+      <c r="G85" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H85" s="9">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" s="6">
+        <v>30</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F86" s="8">
+        <v>3114</v>
+      </c>
+      <c r="G86" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H86" s="9">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D87" s="6">
+        <v>31</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F87" s="8">
+        <v>3185</v>
+      </c>
+      <c r="G87" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H87" s="9">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D88" s="6">
+        <v>22</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F88" s="8">
+        <v>4516.31</v>
+      </c>
+      <c r="G88" s="7">
+        <v>5020502001</v>
+      </c>
+      <c r="H88" s="9">
+        <v>4516.31</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D89" s="6">
         <v>17</v>
       </c>
-      <c r="F54" s="8">
-        <v>3568.98</v>
-      </c>
-      <c r="G54" s="7">
+      <c r="E89" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F89" s="8">
+        <v>100000</v>
+      </c>
+      <c r="G89" s="7">
+        <v>5020301002</v>
+      </c>
+      <c r="H89" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D90" s="6">
+        <v>5</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F90" s="8">
+        <v>3500</v>
+      </c>
+      <c r="G90" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H90" s="9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D91" s="6">
+        <v>2</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F91" s="8">
+        <v>620</v>
+      </c>
+      <c r="G91" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H91" s="9">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D92" s="6">
+        <v>3</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F92" s="8">
+        <v>1150</v>
+      </c>
+      <c r="G92" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H92" s="9">
+        <v>650</v>
+      </c>
+      <c r="I92" s="7">
+        <v>5020201002</v>
+      </c>
+      <c r="J92" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" s="6">
+        <v>58</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F93" s="8">
+        <v>887.99</v>
+      </c>
+      <c r="G93" s="7">
         <v>5020502002</v>
       </c>
-      <c r="H54" s="9">
-        <v>3568.98</v>
+      <c r="H93" s="9">
+        <v>887.99</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D94" s="6">
+        <v>76</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F94" s="8">
+        <v>1158</v>
+      </c>
+      <c r="G94" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H94" s="9">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95" s="6">
+        <v>116</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F95" s="8">
+        <v>785.91</v>
+      </c>
+      <c r="G95" s="7">
+        <v>5020502001</v>
+      </c>
+      <c r="H95" s="9">
+        <v>785.91</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D96" s="6">
+        <v>131</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F96" s="8">
+        <v>35181.06</v>
+      </c>
+      <c r="G96" s="7">
+        <v>5021499000</v>
+      </c>
+      <c r="H96" s="9">
+        <v>35181.06</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D97" s="6">
+        <v>73</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F97" s="8">
+        <v>3661.14</v>
+      </c>
+      <c r="G97" s="7">
+        <v>5021499000</v>
+      </c>
+      <c r="H97" s="9">
+        <v>3661.14</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D98" s="6">
+        <v>74</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F98" s="8">
+        <v>202252.63</v>
+      </c>
+      <c r="G98" s="7">
+        <v>5021499000</v>
+      </c>
+      <c r="H98" s="9">
+        <v>202252.63</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D99" s="6">
+        <v>62</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F99" s="8">
+        <v>15238.83</v>
+      </c>
+      <c r="G99" s="7">
+        <v>5021499000</v>
+      </c>
+      <c r="H99" s="9">
+        <v>15238.83</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D100" s="6">
+        <v>44</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F100" s="8">
+        <v>150150.46</v>
+      </c>
+      <c r="G100" s="7">
+        <v>5021499000</v>
+      </c>
+      <c r="H100" s="9">
+        <v>150150.46</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D101" s="6">
+        <v>23</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F101" s="8">
+        <v>2811.25</v>
+      </c>
+      <c r="G101" s="7">
+        <v>5021499000</v>
+      </c>
+      <c r="H101" s="9">
+        <v>2811.25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D102" s="6">
+        <v>130</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" s="8">
+        <v>1795</v>
+      </c>
+      <c r="G102" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H102" s="9">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D103" s="6">
+        <v>18</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" s="8">
+        <v>2376000</v>
+      </c>
+      <c r="G103" s="7">
+        <v>5021403000</v>
+      </c>
+      <c r="H103" s="9">
+        <v>2376000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D104" s="6">
+        <v>45</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" s="8">
+        <v>3132</v>
+      </c>
+      <c r="G104" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H104" s="9">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="6">
+        <v>47</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" s="8">
+        <v>1705</v>
+      </c>
+      <c r="G105" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H105" s="9">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D106" s="6">
+        <v>67</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" s="8">
+        <v>7800</v>
+      </c>
+      <c r="G106" s="7">
+        <v>5029903000</v>
+      </c>
+      <c r="H106" s="9">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D107" s="6">
+        <v>9</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" s="8">
+        <v>1680</v>
+      </c>
+      <c r="G107" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H107" s="9">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D108" s="6">
+        <v>10</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F108" s="8">
+        <v>3092</v>
+      </c>
+      <c r="G108" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H108" s="9">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D109" s="6">
+        <v>11</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F109" s="8">
+        <v>828</v>
+      </c>
+      <c r="G109" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H109" s="9">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110" s="6">
+        <v>12</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F110" s="8">
+        <v>2240</v>
+      </c>
+      <c r="G110" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H110" s="9">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D111" s="6">
+        <v>13</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F111" s="8">
+        <v>880</v>
+      </c>
+      <c r="G111" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H111" s="9">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D112" s="6">
+        <v>14</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F112" s="8">
+        <v>1652</v>
+      </c>
+      <c r="G112" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H112" s="9">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D113" s="6">
+        <v>15</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F113" s="8">
+        <v>2050</v>
+      </c>
+      <c r="G113" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H113" s="9">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D114" s="6">
+        <v>16</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F114" s="8">
+        <v>880</v>
+      </c>
+      <c r="G114" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H114" s="9">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D115" s="6">
+        <v>122</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F115" s="8">
+        <v>1042</v>
+      </c>
+      <c r="G115" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H115" s="9">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D116" s="6">
+        <v>123</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F116" s="8">
+        <v>4460</v>
+      </c>
+      <c r="G116" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H116" s="9">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D117" s="6">
+        <v>119</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F117" s="8">
+        <v>1520</v>
+      </c>
+      <c r="G117" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H117" s="9">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D118" s="6">
+        <v>102</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F118" s="8">
+        <v>1145</v>
+      </c>
+      <c r="G118" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H118" s="9">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="D119" s="6">
+        <v>114</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F119" s="8">
+        <v>1545</v>
+      </c>
+      <c r="G119" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H119" s="9">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D120" s="6">
+        <v>42</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F120" s="8">
+        <v>1443</v>
+      </c>
+      <c r="G120" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H120" s="9">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D121" s="6">
+        <v>37</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F121" s="8">
+        <v>1881</v>
+      </c>
+      <c r="G121" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H121" s="9">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D122" s="6">
+        <v>20</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="F122" s="8">
+        <v>99000</v>
+      </c>
+      <c r="G122" s="7">
+        <v>5021403000</v>
+      </c>
+      <c r="H122" s="9">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D123" s="6">
+        <v>21</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="F123" s="8">
+        <v>49500</v>
+      </c>
+      <c r="G123" s="7">
+        <v>5021403000</v>
+      </c>
+      <c r="H123" s="9">
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D124" s="6">
+        <v>7</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="F124" s="8">
+        <v>1370</v>
+      </c>
+      <c r="G124" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H124" s="9">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D125" s="6">
+        <v>81</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="F125" s="8">
+        <v>1640</v>
+      </c>
+      <c r="G125" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H125" s="9">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D126" s="6">
+        <v>64</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" s="8">
+        <v>16660</v>
+      </c>
+      <c r="G126" s="7">
+        <v>5021499000</v>
+      </c>
+      <c r="H126" s="9">
+        <v>16660</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D127" s="6">
+        <v>19</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F127" s="8">
+        <v>2475000</v>
+      </c>
+      <c r="G127" s="7">
+        <v>5021403000</v>
+      </c>
+      <c r="H127" s="9">
+        <v>2475000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D128" s="6">
+        <v>24</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" s="8">
+        <v>0</v>
+      </c>
+      <c r="G128" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H128" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D129" s="6">
+        <v>82</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F129" s="8">
+        <v>1890</v>
+      </c>
+      <c r="G129" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H129" s="9">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D130" s="6">
+        <v>83</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F130" s="8">
+        <v>1870</v>
+      </c>
+      <c r="G130" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H130" s="9">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D131" s="6">
+        <v>68</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F131" s="8">
+        <v>2030</v>
+      </c>
+      <c r="G131" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H131" s="9">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D132" s="6">
+        <v>69</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F132" s="8">
+        <v>1420</v>
+      </c>
+      <c r="G132" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H132" s="9">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D133" s="6">
+        <v>70</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F133" s="8">
+        <v>1820</v>
+      </c>
+      <c r="G133" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H133" s="9">
+        <v>1820</v>
       </c>
     </row>
   </sheetData>

--- a/BUDGET/excel_reports/ORSSUMMARY2.xlsx
+++ b/BUDGET/excel_reports/ORSSUMMARY2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>DATE</t>
   </si>
@@ -61,15 +61,27 @@
     <t>01/09/2019</t>
   </si>
   <si>
+    <t>T11-6581</t>
+  </si>
+  <si>
+    <t>JOCELYN TABOTABO</t>
+  </si>
+  <si>
+    <t>2018 HRH - DEP CONAP</t>
+  </si>
+  <si>
+    <t>T12-8437</t>
+  </si>
+  <si>
+    <t>ANABELLE TAMBACAN</t>
+  </si>
+  <si>
     <t>T12-8435</t>
   </si>
   <si>
     <t>ABELARD AÑANA</t>
   </si>
   <si>
-    <t>2018 HRH - DEP CONAP</t>
-  </si>
-  <si>
     <t>01/10/2019</t>
   </si>
   <si>
@@ -79,21 +91,54 @@
     <t>RENE LOFRANCO</t>
   </si>
   <si>
-    <t>T11-6581</t>
-  </si>
-  <si>
-    <t>JOCELYN TABOTABO</t>
-  </si>
-  <si>
-    <t>T12-8437</t>
-  </si>
-  <si>
-    <t>ANABELLE TAMBACAN</t>
-  </si>
-  <si>
     <t>01/11/2019</t>
   </si>
   <si>
+    <t>T12-8508</t>
+  </si>
+  <si>
+    <t>NIÑA KATRINA CADAPAN</t>
+  </si>
+  <si>
+    <t>T12-8467</t>
+  </si>
+  <si>
+    <t>TONEE ROSE PIL</t>
+  </si>
+  <si>
+    <t>T12-8474</t>
+  </si>
+  <si>
+    <t>CHERRY ROSE VILLAESTER</t>
+  </si>
+  <si>
+    <t>T12-8473</t>
+  </si>
+  <si>
+    <t>T12-8507</t>
+  </si>
+  <si>
+    <t>KAREN REGINO</t>
+  </si>
+  <si>
+    <t>T12-7355</t>
+  </si>
+  <si>
+    <t>CARMELA ROSALES</t>
+  </si>
+  <si>
+    <t>T12-8540</t>
+  </si>
+  <si>
+    <t>SIRC PATRICK AMORES</t>
+  </si>
+  <si>
+    <t>T12-8546</t>
+  </si>
+  <si>
+    <t>MARY CAPUCCINE MORALLOS</t>
+  </si>
+  <si>
     <t>T12-8523</t>
   </si>
   <si>
@@ -106,51 +151,6 @@
     <t>SAMUEL ATUAN</t>
   </si>
   <si>
-    <t>T12-8508</t>
-  </si>
-  <si>
-    <t>NIÑA KATRINA CADAPAN</t>
-  </si>
-  <si>
-    <t>T12-8467</t>
-  </si>
-  <si>
-    <t>TONEE ROSE PIL</t>
-  </si>
-  <si>
-    <t>T12-8474</t>
-  </si>
-  <si>
-    <t>CHERRY ROSE VILLAESTER</t>
-  </si>
-  <si>
-    <t>T12-8473</t>
-  </si>
-  <si>
-    <t>T12-8507</t>
-  </si>
-  <si>
-    <t>KAREN REGINO</t>
-  </si>
-  <si>
-    <t>T12-7355</t>
-  </si>
-  <si>
-    <t>CARMELA ROSALES</t>
-  </si>
-  <si>
-    <t>T12-8540</t>
-  </si>
-  <si>
-    <t>SIRC PATRICK AMORES</t>
-  </si>
-  <si>
-    <t>T12-8546</t>
-  </si>
-  <si>
-    <t>MARY CAPUCCINE MORALLOS</t>
-  </si>
-  <si>
     <t>01/14/2019</t>
   </si>
   <si>
@@ -166,6 +166,36 @@
     <t>01/15/2019</t>
   </si>
   <si>
+    <t>T12-8506</t>
+  </si>
+  <si>
+    <t>CATHY ANNE MARIE RAMIREZ</t>
+  </si>
+  <si>
+    <t>T12-8456</t>
+  </si>
+  <si>
+    <t>ALLAN DEO PATENIO</t>
+  </si>
+  <si>
+    <t>T12-8565</t>
+  </si>
+  <si>
+    <t>HONEY LYN DANILA</t>
+  </si>
+  <si>
+    <t>T12-8582</t>
+  </si>
+  <si>
+    <t>FIEL ANGELIE HERNANDEZ</t>
+  </si>
+  <si>
+    <t>T12-8578</t>
+  </si>
+  <si>
+    <t>DOUGLAS VALLEJO JR.</t>
+  </si>
+  <si>
     <t>T12-8563</t>
   </si>
   <si>
@@ -178,39 +208,27 @@
     <t>BLAINE MELENDRES</t>
   </si>
   <si>
-    <t>T12-8456</t>
-  </si>
-  <si>
-    <t>ALLAN DEO PATENIO</t>
-  </si>
-  <si>
-    <t>T12-8565</t>
-  </si>
-  <si>
-    <t>HONEY LYN DANILA</t>
-  </si>
-  <si>
-    <t>T12-8582</t>
-  </si>
-  <si>
-    <t>FIEL ANGELIE HERNANDEZ</t>
-  </si>
-  <si>
-    <t>T12-8578</t>
-  </si>
-  <si>
-    <t>DOUGLAS VALLEJO JR.</t>
-  </si>
-  <si>
-    <t>T12-8506</t>
-  </si>
-  <si>
-    <t>CATHY ANNE MARIE RAMIREZ</t>
-  </si>
-  <si>
     <t>01/18/2019</t>
   </si>
   <si>
+    <t>T12-8465</t>
+  </si>
+  <si>
+    <t>T12-8592</t>
+  </si>
+  <si>
+    <t>CHENNY ATON</t>
+  </si>
+  <si>
+    <t>T12-8466</t>
+  </si>
+  <si>
+    <t>T12-8608</t>
+  </si>
+  <si>
+    <t>MIGUELA CAHAYAG</t>
+  </si>
+  <si>
     <t>T12-8599</t>
   </si>
   <si>
@@ -265,24 +283,6 @@
     <t>HENRY NICHOLSON LABAJO</t>
   </si>
   <si>
-    <t>T12-8465</t>
-  </si>
-  <si>
-    <t>T12-8592</t>
-  </si>
-  <si>
-    <t>CHENNY ATON</t>
-  </si>
-  <si>
-    <t>T12-8608</t>
-  </si>
-  <si>
-    <t>MIGUELA CAHAYAG</t>
-  </si>
-  <si>
-    <t>T12-8466</t>
-  </si>
-  <si>
     <t>01/22/2019</t>
   </si>
   <si>
@@ -298,6 +298,249 @@
     <t>HENRY NICHOLSON C. LABAJO</t>
   </si>
   <si>
+    <t>T12-8464</t>
+  </si>
+  <si>
+    <t>ALMA LUDALIN NABOYA</t>
+  </si>
+  <si>
+    <t>2018 PHM CONAP</t>
+  </si>
+  <si>
+    <t>T12-8463</t>
+  </si>
+  <si>
+    <t>T12-8432</t>
+  </si>
+  <si>
+    <t>SIMPLICIO TORREON</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TRIMAX COMPUTER SUPPLIES &amp; GEN. MERCHANDISE</t>
+  </si>
+  <si>
+    <t>S12-3456</t>
+  </si>
+  <si>
+    <t>SMART COMMUNICATIONS, INC.</t>
+  </si>
+  <si>
+    <t>T12-8545</t>
+  </si>
+  <si>
+    <t>FLORENCE PILAS</t>
+  </si>
+  <si>
+    <t>T12-8462</t>
+  </si>
+  <si>
+    <t>ROSE ANNE REROMA</t>
+  </si>
+  <si>
+    <t>T12-8509</t>
+  </si>
+  <si>
+    <t>T12-8511</t>
+  </si>
+  <si>
+    <t>T12-8510</t>
+  </si>
+  <si>
+    <t>T01-0007</t>
+  </si>
+  <si>
+    <t>THELMA AMANTE</t>
+  </si>
+  <si>
+    <t>T01-0006</t>
+  </si>
+  <si>
+    <t>STEPHEN CINCOFLORES</t>
+  </si>
+  <si>
+    <t>T12-8541</t>
+  </si>
+  <si>
+    <t>MYLENE INFANTE</t>
+  </si>
+  <si>
+    <t>S01-0062</t>
+  </si>
+  <si>
+    <t>INNOVE COMMUNICATIONS, INC.</t>
+  </si>
+  <si>
+    <t>S01-0060</t>
+  </si>
+  <si>
+    <t>S01-0059</t>
+  </si>
+  <si>
+    <t>T12-8529</t>
+  </si>
+  <si>
+    <t>ELIZABETH TABASA</t>
+  </si>
+  <si>
+    <t>S01-0070</t>
+  </si>
+  <si>
+    <t>PLDT, INC.</t>
+  </si>
+  <si>
+    <t>S01-0071</t>
+  </si>
+  <si>
+    <t>S12-3470</t>
+  </si>
+  <si>
+    <t>LBC EXPRESS INCORPORATED</t>
+  </si>
+  <si>
+    <t>S01-0069</t>
+  </si>
+  <si>
+    <t>S01-0068</t>
+  </si>
+  <si>
+    <t>S01-0067</t>
+  </si>
+  <si>
+    <t>S01-0066</t>
+  </si>
+  <si>
+    <t>S01-0065</t>
+  </si>
+  <si>
+    <t>S01-0064</t>
+  </si>
+  <si>
+    <t>S01-0063</t>
+  </si>
+  <si>
+    <t>T12-8577</t>
+  </si>
+  <si>
+    <t>KEEM REDULA ENRERA</t>
+  </si>
+  <si>
+    <t>T12-8564</t>
+  </si>
+  <si>
+    <t>CATHERINE NISTAL</t>
+  </si>
+  <si>
+    <t>01/16/2019</t>
+  </si>
+  <si>
+    <t>S01-0072</t>
+  </si>
+  <si>
+    <t>S01-0074</t>
+  </si>
+  <si>
+    <t>S01-0073</t>
+  </si>
+  <si>
+    <t>T12-7751</t>
+  </si>
+  <si>
+    <t>AUDREY ANNE NAJARRO-DIAZ</t>
+  </si>
+  <si>
+    <t>T12-7752</t>
+  </si>
+  <si>
+    <t>ELMER KENT LOPEZ</t>
+  </si>
+  <si>
+    <t>T12-7753</t>
+  </si>
+  <si>
+    <t>RAMON NAJARRO</t>
+  </si>
+  <si>
+    <t>T12-8522</t>
+  </si>
+  <si>
+    <t>RONADIT ARRIESGADO</t>
+  </si>
+  <si>
+    <t>01/17/2019</t>
+  </si>
+  <si>
+    <t>S01-0078</t>
+  </si>
+  <si>
+    <t>VECO</t>
+  </si>
+  <si>
+    <t>S01-0077</t>
+  </si>
+  <si>
+    <t>S01-0076</t>
+  </si>
+  <si>
+    <t>S01-0079</t>
+  </si>
+  <si>
+    <t>S01-0083</t>
+  </si>
+  <si>
+    <t>S01-0082</t>
+  </si>
+  <si>
+    <t>S01-0081</t>
+  </si>
+  <si>
+    <t>S01-0089</t>
+  </si>
+  <si>
+    <t>T12-8587</t>
+  </si>
+  <si>
+    <t>MERCY GRACE BONCALES</t>
+  </si>
+  <si>
+    <t>T12-8589</t>
+  </si>
+  <si>
+    <t>T12-8590</t>
+  </si>
+  <si>
+    <t>T12-8591</t>
+  </si>
+  <si>
+    <t>ABELARD A_x0010_ÑANA</t>
+  </si>
+  <si>
+    <t>T12-8586</t>
+  </si>
+  <si>
+    <t>DAVILYN AGUR</t>
+  </si>
+  <si>
+    <t>T12-8588</t>
+  </si>
+  <si>
+    <t>MYRA LEONORA SALVALEON</t>
+  </si>
+  <si>
+    <t>T12-8606</t>
+  </si>
+  <si>
+    <t>GIEFRED REGNER, ET AL</t>
+  </si>
+  <si>
+    <t>T12-8607</t>
+  </si>
+  <si>
+    <t>LETECIA YECYEC, ET AL</t>
+  </si>
+  <si>
     <t>01/23/2019</t>
   </si>
   <si>
@@ -307,490 +550,19 @@
     <t>INNOVE COMMUNICATIONS</t>
   </si>
   <si>
-    <t>2018 PHM CONAP</t>
-  </si>
-  <si>
-    <t>T12-8606</t>
-  </si>
-  <si>
-    <t>GIEFRED REGNER, ET AL</t>
-  </si>
-  <si>
-    <t>T12-8607</t>
-  </si>
-  <si>
-    <t>LETECIA YECYEC, ET AL</t>
-  </si>
-  <si>
-    <t>T12-8586</t>
-  </si>
-  <si>
-    <t>DAVILYN AGUR</t>
-  </si>
-  <si>
-    <t>T12-8588</t>
-  </si>
-  <si>
-    <t>MYRA LEONORA SALVALEON</t>
-  </si>
-  <si>
-    <t>T12-8589</t>
-  </si>
-  <si>
-    <t>MERCY GRACE BONCALES</t>
-  </si>
-  <si>
-    <t>T12-8590</t>
-  </si>
-  <si>
-    <t>T12-8591</t>
-  </si>
-  <si>
-    <t>ABELARD A_x0010_ÑANA</t>
-  </si>
-  <si>
-    <t>T12-8577</t>
-  </si>
-  <si>
-    <t>KEEM REDULA ENRERA</t>
-  </si>
-  <si>
-    <t>01/16/2019</t>
-  </si>
-  <si>
-    <t>S01-0072</t>
-  </si>
-  <si>
-    <t>PLDT, INC.</t>
-  </si>
-  <si>
-    <t>S01-0074</t>
-  </si>
-  <si>
-    <t>S01-0073</t>
-  </si>
-  <si>
-    <t>T12-7751</t>
-  </si>
-  <si>
-    <t>AUDREY ANNE NAJARRO-DIAZ</t>
-  </si>
-  <si>
-    <t>T12-7752</t>
-  </si>
-  <si>
-    <t>ELMER KENT LOPEZ</t>
-  </si>
-  <si>
-    <t>T12-7753</t>
-  </si>
-  <si>
-    <t>RAMON NAJARRO</t>
-  </si>
-  <si>
-    <t>T12-8522</t>
-  </si>
-  <si>
-    <t>RONADIT ARRIESGADO</t>
-  </si>
-  <si>
-    <t>01/17/2019</t>
-  </si>
-  <si>
-    <t>S01-0078</t>
-  </si>
-  <si>
-    <t>VECO</t>
-  </si>
-  <si>
-    <t>S01-0077</t>
-  </si>
-  <si>
-    <t>S01-0076</t>
-  </si>
-  <si>
-    <t>S01-0079</t>
-  </si>
-  <si>
-    <t>S01-0083</t>
-  </si>
-  <si>
-    <t>LBC EXPRESS INCORPORATED</t>
-  </si>
-  <si>
-    <t>S01-0082</t>
-  </si>
-  <si>
-    <t>S01-0081</t>
-  </si>
-  <si>
-    <t>S01-0089</t>
-  </si>
-  <si>
-    <t>INNOVE COMMUNICATIONS, INC.</t>
-  </si>
-  <si>
-    <t>T12-8587</t>
-  </si>
-  <si>
-    <t>T12-8529</t>
-  </si>
-  <si>
-    <t>ELIZABETH TABASA</t>
-  </si>
-  <si>
-    <t>T12-8564</t>
-  </si>
-  <si>
-    <t>CATHERINE NISTAL</t>
-  </si>
-  <si>
-    <t>S01-0070</t>
-  </si>
-  <si>
-    <t>S01-0071</t>
-  </si>
-  <si>
-    <t>S12-3470</t>
-  </si>
-  <si>
-    <t>S01-0069</t>
-  </si>
-  <si>
-    <t>S01-0068</t>
-  </si>
-  <si>
-    <t>S01-0067</t>
-  </si>
-  <si>
-    <t>S01-0066</t>
-  </si>
-  <si>
-    <t>S01-0065</t>
-  </si>
-  <si>
-    <t>S01-0064</t>
-  </si>
-  <si>
-    <t>S01-0063</t>
-  </si>
-  <si>
-    <t>T12-8462</t>
-  </si>
-  <si>
-    <t>ROSE ANNE REROMA</t>
-  </si>
-  <si>
-    <t>T12-8541</t>
-  </si>
-  <si>
-    <t>MYLENE INFANTE</t>
-  </si>
-  <si>
-    <t>S01-0062</t>
-  </si>
-  <si>
-    <t>S01-0060</t>
-  </si>
-  <si>
-    <t>S01-0059</t>
-  </si>
-  <si>
-    <t>T12-8545</t>
-  </si>
-  <si>
-    <t>FLORENCE PILAS</t>
-  </si>
-  <si>
-    <t>T12-8509</t>
-  </si>
-  <si>
-    <t>T12-8511</t>
-  </si>
-  <si>
-    <t>T12-8510</t>
-  </si>
-  <si>
-    <t>T01-0007</t>
-  </si>
-  <si>
-    <t>THELMA AMANTE</t>
-  </si>
-  <si>
-    <t>T01-0006</t>
-  </si>
-  <si>
-    <t>STEPHEN CINCOFLORES</t>
-  </si>
-  <si>
-    <t>S12-3456</t>
-  </si>
-  <si>
-    <t>SMART COMMUNICATIONS, INC.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>TRIMAX COMPUTER SUPPLIES &amp; GEN. MERCHANDISE</t>
-  </si>
-  <si>
-    <t>T12-8463</t>
-  </si>
-  <si>
-    <t>ALMA LUDALIN NABOYA</t>
-  </si>
-  <si>
-    <t>T12-8432</t>
-  </si>
-  <si>
-    <t>SIMPLICIO TORREON</t>
-  </si>
-  <si>
-    <t>T12-8464</t>
+    <t>T01-0010</t>
+  </si>
+  <si>
+    <t>CLAUDETTE MAE FLORES</t>
+  </si>
+  <si>
+    <t>2018 RRHFS CONAP</t>
   </si>
   <si>
     <t>S01-0061</t>
   </si>
   <si>
-    <t>2018 RRHFS CONAP</t>
-  </si>
-  <si>
-    <t>T01-0010</t>
-  </si>
-  <si>
-    <t>CLAUDETTE MAE FLORES</t>
-  </si>
-  <si>
     <t>S01-107</t>
-  </si>
-  <si>
-    <t>T12-8616</t>
-  </si>
-  <si>
-    <t>NELSON NAVARRO</t>
-  </si>
-  <si>
-    <t>SAA# 2018-02-0090 CONAP</t>
-  </si>
-  <si>
-    <t>S01-0056</t>
-  </si>
-  <si>
-    <t>MACTAN DOCTORS HOSPITAL</t>
-  </si>
-  <si>
-    <t>T12-8570</t>
-  </si>
-  <si>
-    <t>CRISTINA COMENDADOR</t>
-  </si>
-  <si>
-    <t>T12-8569</t>
-  </si>
-  <si>
-    <t>AIDA CASES</t>
-  </si>
-  <si>
-    <t>T12-8537</t>
-  </si>
-  <si>
-    <t>SHELBAY BLANCO</t>
-  </si>
-  <si>
-    <t>S12-3468</t>
-  </si>
-  <si>
-    <t>CEBU DOCTORS UNIVERSITY HOSPITAL</t>
-  </si>
-  <si>
-    <t>T12-8585</t>
-  </si>
-  <si>
-    <t>ROWENA C. QUILAB</t>
-  </si>
-  <si>
-    <t>SAA# 2018-03-0309 CONAP</t>
-  </si>
-  <si>
-    <t>PROVINCIAL GOVERNMENT OF BOHOL</t>
-  </si>
-  <si>
-    <t>SAA# 2018-03-0455 CONAP</t>
-  </si>
-  <si>
-    <t>T12-8567</t>
-  </si>
-  <si>
-    <t>SAA# 2018-03-0528 CONAP</t>
-  </si>
-  <si>
-    <t>T12-8538</t>
-  </si>
-  <si>
-    <t>T12-8574</t>
-  </si>
-  <si>
-    <t>JONATHAN NEIL ERASMO</t>
-  </si>
-  <si>
-    <t>SAA# 2018-03-0537 CONAP</t>
-  </si>
-  <si>
-    <t>T12-8502</t>
-  </si>
-  <si>
-    <t>KAYE CARINA ANG</t>
-  </si>
-  <si>
-    <t>T12-8475</t>
-  </si>
-  <si>
-    <t>MIKE JACYN SAGUIN</t>
-  </si>
-  <si>
-    <t>T12-8477</t>
-  </si>
-  <si>
-    <t>JENNEVIE LALICAN</t>
-  </si>
-  <si>
-    <t>T12-8479</t>
-  </si>
-  <si>
-    <t>ROSE MARGARETTE ORTEGA</t>
-  </si>
-  <si>
-    <t>T12-8488</t>
-  </si>
-  <si>
-    <t>ROSTAN PESTOLANTE</t>
-  </si>
-  <si>
-    <t>T12-8478</t>
-  </si>
-  <si>
-    <t>T12-8476</t>
-  </si>
-  <si>
-    <t>MATTHEW ADRIAN LONGINOS</t>
-  </si>
-  <si>
-    <t>T12-8503</t>
-  </si>
-  <si>
-    <t>T12-8609</t>
-  </si>
-  <si>
-    <t>KAY CARINA ANG</t>
-  </si>
-  <si>
-    <t>T12-8611</t>
-  </si>
-  <si>
-    <t>STEVEN RITZ GONZALVE</t>
-  </si>
-  <si>
-    <t>T12-8593</t>
-  </si>
-  <si>
-    <t>KAREN PACATANG</t>
-  </si>
-  <si>
-    <t>SAA# 2018-04-0699 CONAP</t>
-  </si>
-  <si>
-    <t>T12-8601</t>
-  </si>
-  <si>
-    <t>MARIA RICA TAGO</t>
-  </si>
-  <si>
-    <t>T12-8602</t>
-  </si>
-  <si>
-    <t>JOCELYN PANTINOPLE</t>
-  </si>
-  <si>
-    <t>T12-8547</t>
-  </si>
-  <si>
-    <t>T12-8470</t>
-  </si>
-  <si>
-    <t>NIÑA JANE POTOT</t>
-  </si>
-  <si>
-    <t>SAA# 2018-05-0973 CONAP</t>
-  </si>
-  <si>
-    <t>CITY OF LAPU-LAPU</t>
-  </si>
-  <si>
-    <t>T12-8438</t>
-  </si>
-  <si>
-    <t>MARITES GRACE SALINGSING</t>
-  </si>
-  <si>
-    <t>SAA# 2018-05-1019 CONAP</t>
-  </si>
-  <si>
-    <t>T01-0013</t>
-  </si>
-  <si>
-    <t>ANGELIE BROOK CEJUDO</t>
-  </si>
-  <si>
-    <t>S01-0054</t>
-  </si>
-  <si>
-    <t>JUAN B. DOSADO MEMORIAL HOSPITAL</t>
-  </si>
-  <si>
-    <t>SAA# 2018-07-1251 CONAP</t>
-  </si>
-  <si>
-    <t>SAA# 2018-08-1302 CONAP</t>
-  </si>
-  <si>
-    <t>T12-7974</t>
-  </si>
-  <si>
-    <t>PAMELA IDA DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>SAA# 2018-10-1632 CONAP</t>
-  </si>
-  <si>
-    <t>T12-8553</t>
-  </si>
-  <si>
-    <t>LEONIDAS SANIEL</t>
-  </si>
-  <si>
-    <t>T12-8559</t>
-  </si>
-  <si>
-    <t>TERESITA SARIGUMBA</t>
-  </si>
-  <si>
-    <t>T12-8555</t>
-  </si>
-  <si>
-    <t>MA. JOSIANE PEPITO</t>
-  </si>
-  <si>
-    <t>T12-8554</t>
-  </si>
-  <si>
-    <t>MILAGROS ISRAEL</t>
-  </si>
-  <si>
-    <t>T12-8551</t>
-  </si>
-  <si>
-    <t>ANGELITA MALERIADO</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +928,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -1235,45 +1007,45 @@
         <v>16</v>
       </c>
       <c r="D2" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8">
-        <v>1920</v>
+        <v>3155</v>
       </c>
       <c r="G2" s="7">
         <v>5020101000</v>
       </c>
       <c r="H2" s="9">
-        <v>1920</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="D3" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="8">
-        <v>2145</v>
+        <v>260</v>
       </c>
       <c r="G3" s="7">
         <v>5020101000</v>
       </c>
       <c r="H3" s="9">
-        <v>2145</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4">
@@ -1281,30 +1053,30 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="8">
-        <v>3155</v>
+        <v>1920</v>
       </c>
       <c r="G4" s="7">
         <v>5020101000</v>
       </c>
       <c r="H4" s="9">
-        <v>3155</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>23</v>
@@ -1313,19 +1085,19 @@
         <v>24</v>
       </c>
       <c r="D5" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="8">
-        <v>260</v>
+        <v>2145</v>
       </c>
       <c r="G5" s="7">
         <v>5020101000</v>
       </c>
       <c r="H5" s="9">
-        <v>260</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="6">
@@ -1339,19 +1111,19 @@
         <v>27</v>
       </c>
       <c r="D6" s="6">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="8">
-        <v>1420</v>
+        <v>1944</v>
       </c>
       <c r="G6" s="7">
         <v>5020101000</v>
       </c>
       <c r="H6" s="9">
-        <v>1420</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="7">
@@ -1365,19 +1137,19 @@
         <v>29</v>
       </c>
       <c r="D7" s="6">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="8">
-        <v>2880</v>
+        <v>795</v>
       </c>
       <c r="G7" s="7">
         <v>5020101000</v>
       </c>
       <c r="H7" s="9">
-        <v>2880</v>
+        <v>795</v>
       </c>
     </row>
     <row r="8">
@@ -1391,19 +1163,19 @@
         <v>31</v>
       </c>
       <c r="D8" s="6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="8">
-        <v>1944</v>
+        <v>860</v>
       </c>
       <c r="G8" s="7">
         <v>5020101000</v>
       </c>
       <c r="H8" s="9">
-        <v>1944</v>
+        <v>860</v>
       </c>
     </row>
     <row r="9">
@@ -1414,22 +1186,22 @@
         <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="8">
-        <v>795</v>
+        <v>860</v>
       </c>
       <c r="G9" s="7">
         <v>5020101000</v>
       </c>
       <c r="H9" s="9">
-        <v>795</v>
+        <v>860</v>
       </c>
     </row>
     <row r="10">
@@ -1437,25 +1209,25 @@
         <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D10" s="6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="8">
-        <v>860</v>
+        <v>1991</v>
       </c>
       <c r="G10" s="7">
         <v>5020101000</v>
       </c>
       <c r="H10" s="9">
-        <v>860</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="11">
@@ -1463,25 +1235,25 @@
         <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D11" s="6">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="8">
-        <v>860</v>
+        <v>3980</v>
       </c>
       <c r="G11" s="7">
         <v>5020101000</v>
       </c>
       <c r="H11" s="9">
-        <v>860</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="12">
@@ -1495,19 +1267,19 @@
         <v>38</v>
       </c>
       <c r="D12" s="6">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="8">
-        <v>1991</v>
+        <v>2219</v>
       </c>
       <c r="G12" s="7">
         <v>5020101000</v>
       </c>
       <c r="H12" s="9">
-        <v>1991</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="13">
@@ -1521,19 +1293,19 @@
         <v>40</v>
       </c>
       <c r="D13" s="6">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="8">
-        <v>3980</v>
+        <v>1615</v>
       </c>
       <c r="G13" s="7">
         <v>5020101000</v>
       </c>
       <c r="H13" s="9">
-        <v>3980</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="14">
@@ -1547,19 +1319,19 @@
         <v>42</v>
       </c>
       <c r="D14" s="6">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="8">
-        <v>2219</v>
+        <v>1420</v>
       </c>
       <c r="G14" s="7">
         <v>5020101000</v>
       </c>
       <c r="H14" s="9">
-        <v>2219</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="15">
@@ -1573,19 +1345,19 @@
         <v>44</v>
       </c>
       <c r="D15" s="6">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="8">
-        <v>1615</v>
+        <v>2880</v>
       </c>
       <c r="G15" s="7">
         <v>5020101000</v>
       </c>
       <c r="H15" s="9">
-        <v>1615</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="16">
@@ -1596,7 +1368,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D16" s="6">
         <v>48</v>
@@ -1651,19 +1423,19 @@
         <v>51</v>
       </c>
       <c r="D18" s="6">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="8">
-        <v>2915</v>
+        <v>760</v>
       </c>
       <c r="G18" s="7">
         <v>5020101000</v>
       </c>
       <c r="H18" s="9">
-        <v>2915</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19">
@@ -1677,19 +1449,19 @@
         <v>53</v>
       </c>
       <c r="D19" s="6">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="8">
-        <v>2102</v>
+        <v>1559</v>
       </c>
       <c r="G19" s="7">
         <v>5020101000</v>
       </c>
       <c r="H19" s="9">
-        <v>2102</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="20">
@@ -1703,19 +1475,19 @@
         <v>55</v>
       </c>
       <c r="D20" s="6">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="8">
-        <v>1559</v>
+        <v>2585</v>
       </c>
       <c r="G20" s="7">
         <v>5020101000</v>
       </c>
       <c r="H20" s="9">
-        <v>1559</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="21">
@@ -1729,19 +1501,19 @@
         <v>57</v>
       </c>
       <c r="D21" s="6">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="8">
-        <v>2585</v>
+        <v>2155</v>
       </c>
       <c r="G21" s="7">
         <v>5020101000</v>
       </c>
       <c r="H21" s="9">
-        <v>2585</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="22">
@@ -1755,19 +1527,19 @@
         <v>59</v>
       </c>
       <c r="D22" s="6">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="8">
-        <v>2155</v>
+        <v>1170</v>
       </c>
       <c r="G22" s="7">
         <v>5020101000</v>
       </c>
       <c r="H22" s="9">
-        <v>2155</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="23">
@@ -1781,19 +1553,19 @@
         <v>61</v>
       </c>
       <c r="D23" s="6">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="8">
-        <v>1170</v>
+        <v>2915</v>
       </c>
       <c r="G23" s="7">
         <v>5020101000</v>
       </c>
       <c r="H23" s="9">
-        <v>1170</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="24">
@@ -1807,19 +1579,19 @@
         <v>63</v>
       </c>
       <c r="D24" s="6">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="8">
-        <v>760</v>
+        <v>2102</v>
       </c>
       <c r="G24" s="7">
         <v>5020101000</v>
       </c>
       <c r="H24" s="9">
-        <v>760</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="25">
@@ -1830,22 +1602,22 @@
         <v>65</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D25" s="6">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="8">
-        <v>1140</v>
+        <v>565</v>
       </c>
       <c r="G25" s="7">
         <v>5020101000</v>
       </c>
       <c r="H25" s="9">
-        <v>1140</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26">
@@ -1853,25 +1625,25 @@
         <v>64</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="D26" s="6">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="8">
-        <v>1745</v>
+        <v>885</v>
       </c>
       <c r="G26" s="7">
         <v>5020101000</v>
       </c>
       <c r="H26" s="9">
-        <v>1745</v>
+        <v>885</v>
       </c>
     </row>
     <row r="27">
@@ -1879,25 +1651,19 @@
         <v>64</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D27" s="6">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="8">
-        <v>1690</v>
-      </c>
-      <c r="G27" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H27" s="9">
-        <v>1690</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1905,25 +1671,25 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" s="6">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="8">
-        <v>1705</v>
+        <v>1000</v>
       </c>
       <c r="G28" s="7">
         <v>5020101000</v>
       </c>
       <c r="H28" s="9">
-        <v>1705</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -1931,13 +1697,13 @@
         <v>64</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="6">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>17</v>
@@ -1957,13 +1723,13 @@
         <v>64</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D30" s="6">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>17</v>
@@ -1983,25 +1749,25 @@
         <v>64</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D31" s="6">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="8">
-        <v>1265</v>
+        <v>1690</v>
       </c>
       <c r="G31" s="7">
         <v>5020101000</v>
       </c>
       <c r="H31" s="9">
-        <v>1265</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="32">
@@ -2009,25 +1775,25 @@
         <v>64</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D32" s="6">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="8">
-        <v>1360</v>
+        <v>1705</v>
       </c>
       <c r="G32" s="7">
         <v>5020101000</v>
       </c>
       <c r="H32" s="9">
-        <v>1360</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="33">
@@ -2035,25 +1801,25 @@
         <v>64</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D33" s="6">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="8">
-        <v>1670</v>
+        <v>1140</v>
       </c>
       <c r="G33" s="7">
         <v>5020101000</v>
       </c>
       <c r="H33" s="9">
-        <v>1670</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="34">
@@ -2061,25 +1827,25 @@
         <v>64</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D34" s="6">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="8">
-        <v>565</v>
+        <v>1745</v>
       </c>
       <c r="G34" s="7">
         <v>5020101000</v>
       </c>
       <c r="H34" s="9">
-        <v>565</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="35">
@@ -2087,25 +1853,25 @@
         <v>64</v>
       </c>
       <c r="B35" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="D35" s="6">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F35" s="8">
-        <v>885</v>
+        <v>1265</v>
       </c>
       <c r="G35" s="7">
         <v>5020101000</v>
       </c>
       <c r="H35" s="9">
-        <v>885</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="36">
@@ -2113,25 +1879,25 @@
         <v>64</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="D36" s="6">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="8">
-        <v>1000</v>
+        <v>1360</v>
       </c>
       <c r="G36" s="7">
         <v>5020101000</v>
       </c>
       <c r="H36" s="9">
-        <v>1000</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="37">
@@ -2139,19 +1905,25 @@
         <v>64</v>
       </c>
       <c r="B37" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="D37" s="6">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="8">
-        <v>0</v>
+        <v>1670</v>
+      </c>
+      <c r="G37" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H37" s="9">
+        <v>1670</v>
       </c>
     </row>
     <row r="38">
@@ -2208,640 +1980,676 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="C40" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="D40" s="6">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F40" s="8">
-        <v>3568.98</v>
+        <v>1150</v>
       </c>
       <c r="G40" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H40" s="9">
-        <v>3568.98</v>
+        <v>650</v>
+      </c>
+      <c r="I40" s="7">
+        <v>5020201002</v>
+      </c>
+      <c r="J40" s="9">
+        <v>500</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D41" s="6">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F41" s="8">
-        <v>0</v>
+        <v>3500</v>
+      </c>
+      <c r="G41" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H41" s="9">
+        <v>3500</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D42" s="6">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F42" s="8">
-        <v>0</v>
+        <v>620</v>
+      </c>
+      <c r="G42" s="7">
+        <v>5020101000</v>
+      </c>
+      <c r="H42" s="9">
+        <v>620</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D43" s="6">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F43" s="8">
-        <v>1080</v>
+        <v>100000</v>
       </c>
       <c r="G43" s="7">
-        <v>5020101000</v>
+        <v>5020301002</v>
       </c>
       <c r="H43" s="9">
-        <v>1080</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D44" s="6">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F44" s="8">
-        <v>2085</v>
+        <v>4516.31</v>
       </c>
       <c r="G44" s="7">
-        <v>5020101000</v>
+        <v>5020502001</v>
       </c>
       <c r="H44" s="9">
-        <v>2085</v>
+        <v>4516.31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D45" s="6">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F45" s="8">
-        <v>880</v>
+        <v>2265</v>
       </c>
       <c r="G45" s="7">
         <v>5020101000</v>
       </c>
       <c r="H45" s="9">
-        <v>880</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="D46" s="6">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F46" s="8">
-        <v>1010</v>
+        <v>1800</v>
       </c>
       <c r="G46" s="7">
         <v>5020101000</v>
       </c>
       <c r="H46" s="9">
-        <v>1010</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="D47" s="6">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F47" s="8">
-        <v>1010</v>
+        <v>1515</v>
       </c>
       <c r="G47" s="7">
         <v>5020101000</v>
       </c>
       <c r="H47" s="9">
-        <v>1010</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="D48" s="6">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F48" s="8">
-        <v>1005</v>
+        <v>3950</v>
       </c>
       <c r="G48" s="7">
         <v>5020101000</v>
       </c>
       <c r="H48" s="9">
-        <v>1005</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="D49" s="6">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F49" s="8">
-        <v>4148.26</v>
+        <v>2945</v>
       </c>
       <c r="G49" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H49" s="9">
-        <v>4148.26</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D50" s="6">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="8">
-        <v>2113.36</v>
+        <v>3114</v>
       </c>
       <c r="G50" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H50" s="9">
-        <v>2113.36</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="C51" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D51" s="6">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F51" s="8">
-        <v>2147.75</v>
+        <v>3185</v>
       </c>
       <c r="G51" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H51" s="9">
-        <v>2147.75</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D52" s="6">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F52" s="8">
-        <v>6035</v>
+        <v>2922</v>
       </c>
       <c r="G52" s="7">
-        <v>5020201002</v>
+        <v>5020101000</v>
       </c>
       <c r="H52" s="9">
-        <v>6035</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D53" s="6">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F53" s="8">
-        <v>13487.02</v>
+        <v>1256.99</v>
       </c>
       <c r="G53" s="7">
-        <v>5020201002</v>
+        <v>5020502002</v>
       </c>
       <c r="H53" s="9">
-        <v>13487.02</v>
+        <v>1256.99</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D54" s="6">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F54" s="8">
-        <v>15168.77</v>
+        <v>1134.49</v>
       </c>
       <c r="G54" s="7">
-        <v>5020201002</v>
+        <v>5020502002</v>
       </c>
       <c r="H54" s="9">
-        <v>15168.77</v>
+        <v>1134.49</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D55" s="6">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F55" s="8">
-        <v>1460</v>
+        <v>887.99</v>
       </c>
       <c r="G55" s="7">
-        <v>5020101000</v>
+        <v>5020502002</v>
       </c>
       <c r="H55" s="9">
-        <v>1460</v>
+        <v>887.99</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D56" s="6">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F56" s="8">
-        <v>46761.68</v>
+        <v>58548.25</v>
       </c>
       <c r="G56" s="7">
-        <v>5020402000</v>
+        <v>5020301002</v>
       </c>
       <c r="H56" s="9">
-        <v>46761.68</v>
+        <v>26936.25</v>
+      </c>
+      <c r="I56" s="7">
+        <v>5020321003</v>
+      </c>
+      <c r="J56" s="9">
+        <v>18490</v>
+      </c>
+      <c r="K56" s="7">
+        <v>5021304001</v>
+      </c>
+      <c r="L56" s="9">
+        <v>6749</v>
+      </c>
+      <c r="M56" s="7">
+        <v>5021307000</v>
+      </c>
+      <c r="N56" s="9">
+        <v>6373</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D57" s="6">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F57" s="8">
-        <v>85517.4</v>
+        <v>1216.78</v>
       </c>
       <c r="G57" s="7">
-        <v>5020402000</v>
+        <v>5020502002</v>
       </c>
       <c r="H57" s="9">
-        <v>85517.4</v>
+        <v>1216.78</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D58" s="6">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F58" s="8">
-        <v>10640</v>
+        <v>1688.98</v>
       </c>
       <c r="G58" s="7">
-        <v>5020503000</v>
+        <v>5020502002</v>
       </c>
       <c r="H58" s="9">
-        <v>10640</v>
+        <v>1688.98</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>131</v>
-      </c>
       <c r="C59" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D59" s="6">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F59" s="8">
-        <v>130781.99</v>
+        <v>27321.88</v>
       </c>
       <c r="G59" s="7">
-        <v>5020402000</v>
+        <v>5020501000</v>
       </c>
       <c r="H59" s="9">
-        <v>130781.99</v>
+        <v>27321.88</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D60" s="6">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F60" s="8">
-        <v>33323.94</v>
+        <v>1048.78</v>
       </c>
       <c r="G60" s="7">
-        <v>5029904000</v>
+        <v>5020502002</v>
       </c>
       <c r="H60" s="9">
-        <v>33323.94</v>
+        <v>1048.78</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D61" s="6">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F61" s="8">
-        <v>2203.62</v>
+        <v>1048.78</v>
       </c>
       <c r="G61" s="7">
-        <v>5029904000</v>
+        <v>5020502002</v>
       </c>
       <c r="H61" s="9">
-        <v>2203.62</v>
+        <v>1048.78</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D62" s="6">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F62" s="8">
-        <v>366557.9</v>
+        <v>887.99</v>
       </c>
       <c r="G62" s="7">
-        <v>5029904000</v>
+        <v>5020502002</v>
       </c>
       <c r="H62" s="9">
-        <v>366557.9</v>
+        <v>887.99</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D63" s="6">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F63" s="8">
-        <v>1487.96</v>
+        <v>1099.49</v>
       </c>
       <c r="G63" s="7">
         <v>5020502002</v>
       </c>
       <c r="H63" s="9">
-        <v>1487.96</v>
+        <v>1099.49</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D64" s="6">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F64" s="8">
-        <v>440</v>
+        <v>887.99</v>
       </c>
       <c r="G64" s="7">
-        <v>5020101000</v>
+        <v>5020502002</v>
       </c>
       <c r="H64" s="9">
-        <v>440</v>
+        <v>887.99</v>
       </c>
     </row>
     <row r="65">
@@ -2849,43 +2657,25 @@
         <v>49</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D65" s="6">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F65" s="8">
-        <v>58548.25</v>
+        <v>47040</v>
       </c>
       <c r="G65" s="7">
-        <v>5020301002</v>
+        <v>5020503000</v>
       </c>
       <c r="H65" s="9">
-        <v>26936.25</v>
-      </c>
-      <c r="I65" s="7">
-        <v>5020321003</v>
-      </c>
-      <c r="J65" s="9">
-        <v>18490</v>
-      </c>
-      <c r="K65" s="7">
-        <v>5021304001</v>
-      </c>
-      <c r="L65" s="9">
-        <v>6749</v>
-      </c>
-      <c r="M65" s="7">
-        <v>5021307000</v>
-      </c>
-      <c r="N65" s="9">
-        <v>6373</v>
+        <v>47040</v>
       </c>
     </row>
     <row r="66">
@@ -2893,25 +2683,25 @@
         <v>49</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D66" s="6">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F66" s="8">
-        <v>2585</v>
+        <v>1489.48</v>
       </c>
       <c r="G66" s="7">
-        <v>5020101000</v>
+        <v>5020502002</v>
       </c>
       <c r="H66" s="9">
-        <v>2585</v>
+        <v>1489.48</v>
       </c>
     </row>
     <row r="67">
@@ -2919,25 +2709,25 @@
         <v>49</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D67" s="6">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F67" s="8">
-        <v>1216.78</v>
+        <v>1005</v>
       </c>
       <c r="G67" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H67" s="9">
-        <v>1216.78</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="68">
@@ -2945,655 +2735,637 @@
         <v>49</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D68" s="6">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F68" s="8">
-        <v>1688.98</v>
+        <v>2585</v>
       </c>
       <c r="G68" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H68" s="9">
-        <v>1688.98</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D69" s="6">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F69" s="8">
-        <v>27321.88</v>
+        <v>4148.26</v>
       </c>
       <c r="G69" s="7">
-        <v>5020501000</v>
+        <v>5020502002</v>
       </c>
       <c r="H69" s="9">
-        <v>27321.88</v>
+        <v>4148.26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D70" s="6">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F70" s="8">
-        <v>1048.78</v>
+        <v>2113.36</v>
       </c>
       <c r="G70" s="7">
         <v>5020502002</v>
       </c>
       <c r="H70" s="9">
-        <v>1048.78</v>
+        <v>2113.36</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D71" s="6">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F71" s="8">
-        <v>1048.78</v>
+        <v>2147.75</v>
       </c>
       <c r="G71" s="7">
         <v>5020502002</v>
       </c>
       <c r="H71" s="9">
-        <v>1048.78</v>
+        <v>2147.75</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D72" s="6">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F72" s="8">
-        <v>887.99</v>
+        <v>6035</v>
       </c>
       <c r="G72" s="7">
-        <v>5020502002</v>
+        <v>5020201002</v>
       </c>
       <c r="H72" s="9">
-        <v>887.99</v>
+        <v>6035</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D73" s="6">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F73" s="8">
-        <v>1099.49</v>
+        <v>13487.02</v>
       </c>
       <c r="G73" s="7">
-        <v>5020502002</v>
+        <v>5020201002</v>
       </c>
       <c r="H73" s="9">
-        <v>1099.49</v>
+        <v>13487.02</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D74" s="6">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F74" s="8">
-        <v>887.99</v>
+        <v>15168.77</v>
       </c>
       <c r="G74" s="7">
-        <v>5020502002</v>
+        <v>5020201002</v>
       </c>
       <c r="H74" s="9">
-        <v>887.99</v>
+        <v>15168.77</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D75" s="6">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F75" s="8">
-        <v>47040</v>
+        <v>1460</v>
       </c>
       <c r="G75" s="7">
-        <v>5020503000</v>
+        <v>5020101000</v>
       </c>
       <c r="H75" s="9">
-        <v>47040</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>152</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D76" s="6">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F76" s="8">
-        <v>1489.48</v>
+        <v>46761.68</v>
       </c>
       <c r="G76" s="7">
-        <v>5020502002</v>
+        <v>5020402000</v>
       </c>
       <c r="H76" s="9">
-        <v>1489.48</v>
+        <v>46761.68</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="B77" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="D77" s="6">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F77" s="8">
-        <v>1800</v>
+        <v>85517.4</v>
       </c>
       <c r="G77" s="7">
-        <v>5020101000</v>
+        <v>5020402000</v>
       </c>
       <c r="H77" s="9">
-        <v>1800</v>
+        <v>85517.4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>155</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D78" s="6">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F78" s="8">
-        <v>2922</v>
+        <v>10640</v>
       </c>
       <c r="G78" s="7">
-        <v>5020101000</v>
+        <v>5020503000</v>
       </c>
       <c r="H78" s="9">
-        <v>2922</v>
+        <v>10640</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D79" s="6">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F79" s="8">
-        <v>1256.99</v>
+        <v>130781.99</v>
       </c>
       <c r="G79" s="7">
-        <v>5020502002</v>
+        <v>5020402000</v>
       </c>
       <c r="H79" s="9">
-        <v>1256.99</v>
+        <v>130781.99</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D80" s="6">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F80" s="8">
-        <v>1134.49</v>
+        <v>33323.94</v>
       </c>
       <c r="G80" s="7">
-        <v>5020502002</v>
+        <v>5029904000</v>
       </c>
       <c r="H80" s="9">
-        <v>1134.49</v>
+        <v>33323.94</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D81" s="6">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F81" s="8">
-        <v>887.99</v>
+        <v>2203.62</v>
       </c>
       <c r="G81" s="7">
-        <v>5020502002</v>
+        <v>5029904000</v>
       </c>
       <c r="H81" s="9">
-        <v>887.99</v>
+        <v>2203.62</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="D82" s="6">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F82" s="8">
-        <v>2265</v>
+        <v>366557.9</v>
       </c>
       <c r="G82" s="7">
-        <v>5020101000</v>
+        <v>5029904000</v>
       </c>
       <c r="H82" s="9">
-        <v>2265</v>
+        <v>366557.9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="D83" s="6">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F83" s="8">
-        <v>1515</v>
+        <v>1487.96</v>
       </c>
       <c r="G83" s="7">
-        <v>5020101000</v>
+        <v>5020502002</v>
       </c>
       <c r="H83" s="9">
-        <v>1515</v>
+        <v>1487.96</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="D84" s="6">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F84" s="8">
-        <v>3950</v>
+        <v>440</v>
       </c>
       <c r="G84" s="7">
         <v>5020101000</v>
       </c>
       <c r="H84" s="9">
-        <v>3950</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="D85" s="6">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F85" s="8">
-        <v>2945</v>
+        <v>880</v>
       </c>
       <c r="G85" s="7">
         <v>5020101000</v>
       </c>
       <c r="H85" s="9">
-        <v>2945</v>
+        <v>880</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="D86" s="6">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F86" s="8">
-        <v>3114</v>
+        <v>1010</v>
       </c>
       <c r="G86" s="7">
         <v>5020101000</v>
       </c>
       <c r="H86" s="9">
-        <v>3114</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D87" s="6">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F87" s="8">
-        <v>3185</v>
+        <v>1010</v>
       </c>
       <c r="G87" s="7">
         <v>5020101000</v>
       </c>
       <c r="H87" s="9">
-        <v>3185</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D88" s="6">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F88" s="8">
-        <v>4516.31</v>
+        <v>1080</v>
       </c>
       <c r="G88" s="7">
-        <v>5020502001</v>
+        <v>5020101000</v>
       </c>
       <c r="H88" s="9">
-        <v>4516.31</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D89" s="6">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F89" s="8">
-        <v>100000</v>
+        <v>2085</v>
       </c>
       <c r="G89" s="7">
-        <v>5020301002</v>
+        <v>5020101000</v>
       </c>
       <c r="H89" s="9">
-        <v>100000</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D90" s="6">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F90" s="8">
-        <v>3500</v>
-      </c>
-      <c r="G90" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H90" s="9">
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D91" s="6">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F91" s="8">
-        <v>620</v>
-      </c>
-      <c r="G91" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H91" s="9">
-        <v>620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="B92" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="C92" s="0" t="s">
-        <v>174</v>
-      </c>
       <c r="D92" s="6">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F92" s="8">
-        <v>1150</v>
+        <v>3568.98</v>
       </c>
       <c r="G92" s="7">
-        <v>5020101000</v>
+        <v>5020502002</v>
       </c>
       <c r="H92" s="9">
-        <v>650</v>
-      </c>
-      <c r="I92" s="7">
-        <v>5020201002</v>
-      </c>
-      <c r="J92" s="9">
-        <v>500</v>
+        <v>3568.98</v>
       </c>
     </row>
     <row r="93">
@@ -3604,22 +3376,22 @@
         <v>178</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="D93" s="6">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F93" s="8">
-        <v>887.99</v>
+        <v>1158</v>
       </c>
       <c r="G93" s="7">
-        <v>5020502002</v>
+        <v>5020101000</v>
       </c>
       <c r="H93" s="9">
-        <v>887.99</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="94">
@@ -3627,25 +3399,25 @@
         <v>49</v>
       </c>
       <c r="B94" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" s="6">
+        <v>58</v>
+      </c>
+      <c r="E94" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="C94" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="D94" s="6">
-        <v>76</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>179</v>
-      </c>
       <c r="F94" s="8">
-        <v>1158</v>
+        <v>887.99</v>
       </c>
       <c r="G94" s="7">
-        <v>5020101000</v>
+        <v>5020502002</v>
       </c>
       <c r="H94" s="9">
-        <v>1158</v>
+        <v>887.99</v>
       </c>
     </row>
     <row r="95">
@@ -3656,13 +3428,13 @@
         <v>182</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="D95" s="6">
         <v>116</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F95" s="8">
         <v>785.91</v>
@@ -3672,994 +3444,6 @@
       </c>
       <c r="H95" s="9">
         <v>785.91</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="D96" s="6">
-        <v>131</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F96" s="8">
-        <v>35181.06</v>
-      </c>
-      <c r="G96" s="7">
-        <v>5021499000</v>
-      </c>
-      <c r="H96" s="9">
-        <v>35181.06</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="D97" s="6">
-        <v>73</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F97" s="8">
-        <v>3661.14</v>
-      </c>
-      <c r="G97" s="7">
-        <v>5021499000</v>
-      </c>
-      <c r="H97" s="9">
-        <v>3661.14</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D98" s="6">
-        <v>74</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F98" s="8">
-        <v>202252.63</v>
-      </c>
-      <c r="G98" s="7">
-        <v>5021499000</v>
-      </c>
-      <c r="H98" s="9">
-        <v>202252.63</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="D99" s="6">
-        <v>62</v>
-      </c>
-      <c r="E99" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F99" s="8">
-        <v>15238.83</v>
-      </c>
-      <c r="G99" s="7">
-        <v>5021499000</v>
-      </c>
-      <c r="H99" s="9">
-        <v>15238.83</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="D100" s="6">
-        <v>44</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F100" s="8">
-        <v>150150.46</v>
-      </c>
-      <c r="G100" s="7">
-        <v>5021499000</v>
-      </c>
-      <c r="H100" s="9">
-        <v>150150.46</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="D101" s="6">
-        <v>23</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F101" s="8">
-        <v>2811.25</v>
-      </c>
-      <c r="G101" s="7">
-        <v>5021499000</v>
-      </c>
-      <c r="H101" s="9">
-        <v>2811.25</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="D102" s="6">
-        <v>130</v>
-      </c>
-      <c r="E102" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="F102" s="8">
-        <v>1795</v>
-      </c>
-      <c r="G102" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H102" s="9">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D103" s="6">
-        <v>18</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="F103" s="8">
-        <v>2376000</v>
-      </c>
-      <c r="G103" s="7">
-        <v>5021403000</v>
-      </c>
-      <c r="H103" s="9">
-        <v>2376000</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D104" s="6">
-        <v>45</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F104" s="8">
-        <v>3132</v>
-      </c>
-      <c r="G104" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H104" s="9">
-        <v>3132</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D105" s="6">
-        <v>47</v>
-      </c>
-      <c r="E105" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F105" s="8">
-        <v>1705</v>
-      </c>
-      <c r="G105" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H105" s="9">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D106" s="6">
-        <v>67</v>
-      </c>
-      <c r="E106" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F106" s="8">
-        <v>7800</v>
-      </c>
-      <c r="G106" s="7">
-        <v>5029903000</v>
-      </c>
-      <c r="H106" s="9">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="D107" s="6">
-        <v>9</v>
-      </c>
-      <c r="E107" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F107" s="8">
-        <v>1680</v>
-      </c>
-      <c r="G107" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H107" s="9">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="D108" s="6">
-        <v>10</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F108" s="8">
-        <v>3092</v>
-      </c>
-      <c r="G108" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H108" s="9">
-        <v>3092</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="D109" s="6">
-        <v>11</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F109" s="8">
-        <v>828</v>
-      </c>
-      <c r="G109" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H109" s="9">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="D110" s="6">
-        <v>12</v>
-      </c>
-      <c r="E110" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F110" s="8">
-        <v>2240</v>
-      </c>
-      <c r="G110" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H110" s="9">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="D111" s="6">
-        <v>13</v>
-      </c>
-      <c r="E111" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F111" s="8">
-        <v>880</v>
-      </c>
-      <c r="G111" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H111" s="9">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="D112" s="6">
-        <v>14</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F112" s="8">
-        <v>1652</v>
-      </c>
-      <c r="G112" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H112" s="9">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="D113" s="6">
-        <v>15</v>
-      </c>
-      <c r="E113" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F113" s="8">
-        <v>2050</v>
-      </c>
-      <c r="G113" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H113" s="9">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="D114" s="6">
-        <v>16</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F114" s="8">
-        <v>880</v>
-      </c>
-      <c r="G114" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H114" s="9">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="D115" s="6">
-        <v>122</v>
-      </c>
-      <c r="E115" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F115" s="8">
-        <v>1042</v>
-      </c>
-      <c r="G115" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H115" s="9">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="D116" s="6">
-        <v>123</v>
-      </c>
-      <c r="E116" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F116" s="8">
-        <v>4460</v>
-      </c>
-      <c r="G116" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H116" s="9">
-        <v>4460</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="D117" s="6">
-        <v>119</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="F117" s="8">
-        <v>1520</v>
-      </c>
-      <c r="G117" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H117" s="9">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="D118" s="6">
-        <v>102</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="F118" s="8">
-        <v>1145</v>
-      </c>
-      <c r="G118" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H118" s="9">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D119" s="6">
-        <v>114</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="F119" s="8">
-        <v>1545</v>
-      </c>
-      <c r="G119" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H119" s="9">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D120" s="6">
-        <v>42</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="F120" s="8">
-        <v>1443</v>
-      </c>
-      <c r="G120" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H120" s="9">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="D121" s="6">
-        <v>37</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="F121" s="8">
-        <v>1881</v>
-      </c>
-      <c r="G121" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H121" s="9">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D122" s="6">
-        <v>20</v>
-      </c>
-      <c r="E122" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="F122" s="8">
-        <v>99000</v>
-      </c>
-      <c r="G122" s="7">
-        <v>5021403000</v>
-      </c>
-      <c r="H122" s="9">
-        <v>99000</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="D123" s="6">
-        <v>21</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="F123" s="8">
-        <v>49500</v>
-      </c>
-      <c r="G123" s="7">
-        <v>5021403000</v>
-      </c>
-      <c r="H123" s="9">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="D124" s="6">
-        <v>7</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="F124" s="8">
-        <v>1370</v>
-      </c>
-      <c r="G124" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H124" s="9">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="D125" s="6">
-        <v>81</v>
-      </c>
-      <c r="E125" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="F125" s="8">
-        <v>1640</v>
-      </c>
-      <c r="G125" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H125" s="9">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D126" s="6">
-        <v>64</v>
-      </c>
-      <c r="E126" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="F126" s="8">
-        <v>16660</v>
-      </c>
-      <c r="G126" s="7">
-        <v>5021499000</v>
-      </c>
-      <c r="H126" s="9">
-        <v>16660</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D127" s="6">
-        <v>19</v>
-      </c>
-      <c r="E127" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="F127" s="8">
-        <v>2475000</v>
-      </c>
-      <c r="G127" s="7">
-        <v>5021403000</v>
-      </c>
-      <c r="H127" s="9">
-        <v>2475000</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D128" s="6">
-        <v>24</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="F128" s="8">
-        <v>0</v>
-      </c>
-      <c r="G128" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H128" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="D129" s="6">
-        <v>82</v>
-      </c>
-      <c r="E129" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="F129" s="8">
-        <v>1890</v>
-      </c>
-      <c r="G129" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H129" s="9">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="D130" s="6">
-        <v>83</v>
-      </c>
-      <c r="E130" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="F130" s="8">
-        <v>1870</v>
-      </c>
-      <c r="G130" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H130" s="9">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="D131" s="6">
-        <v>68</v>
-      </c>
-      <c r="E131" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="F131" s="8">
-        <v>2030</v>
-      </c>
-      <c r="G131" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H131" s="9">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="D132" s="6">
-        <v>69</v>
-      </c>
-      <c r="E132" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="F132" s="8">
-        <v>1420</v>
-      </c>
-      <c r="G132" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H132" s="9">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="D133" s="6">
-        <v>70</v>
-      </c>
-      <c r="E133" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="F133" s="8">
-        <v>1820</v>
-      </c>
-      <c r="G133" s="7">
-        <v>5020101000</v>
-      </c>
-      <c r="H133" s="9">
-        <v>1820</v>
       </c>
     </row>
   </sheetData>

--- a/BUDGET/excel_reports/ORSSUMMARY2.xlsx
+++ b/BUDGET/excel_reports/ORSSUMMARY2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
   <si>
     <t>DATE</t>
   </si>
@@ -32,6 +32,1134 @@
   </si>
   <si>
     <t>GROSS</t>
+  </si>
+  <si>
+    <t>01/09/2019</t>
+  </si>
+  <si>
+    <t>T12-8464</t>
+  </si>
+  <si>
+    <t>ALMA LUDALIN NABOYA</t>
+  </si>
+  <si>
+    <t>STO-PS</t>
+  </si>
+  <si>
+    <t>T11-6581</t>
+  </si>
+  <si>
+    <t>JOCELYN TABOTABO</t>
+  </si>
+  <si>
+    <t>T12-8463</t>
+  </si>
+  <si>
+    <t>T12-8437</t>
+  </si>
+  <si>
+    <t>ANABELLE TAMBACAN</t>
+  </si>
+  <si>
+    <t>T12-8438</t>
+  </si>
+  <si>
+    <t>MARITES GRACE SALINGSING</t>
+  </si>
+  <si>
+    <t>T12-8435</t>
+  </si>
+  <si>
+    <t>ABELARD AÑANA</t>
+  </si>
+  <si>
+    <t>T12-8502</t>
+  </si>
+  <si>
+    <t>KAYE CARINA ANG</t>
+  </si>
+  <si>
+    <t>T12-8475</t>
+  </si>
+  <si>
+    <t>MIKE JACYN SAGUIN</t>
+  </si>
+  <si>
+    <t>T12-8477</t>
+  </si>
+  <si>
+    <t>JENNEVIE LALICAN</t>
+  </si>
+  <si>
+    <t>T12-8479</t>
+  </si>
+  <si>
+    <t>ROSE MARGARETTE ORTEGA</t>
+  </si>
+  <si>
+    <t>T12-8488</t>
+  </si>
+  <si>
+    <t>ROSTAN PESTOLANTE</t>
+  </si>
+  <si>
+    <t>T12-8478</t>
+  </si>
+  <si>
+    <t>T12-8476</t>
+  </si>
+  <si>
+    <t>MATTHEW ADRIAN LONGINOS</t>
+  </si>
+  <si>
+    <t>T12-8503</t>
+  </si>
+  <si>
+    <t>01/10/2019</t>
+  </si>
+  <si>
+    <t>T12-8434</t>
+  </si>
+  <si>
+    <t>RENE LOFRANCO</t>
+  </si>
+  <si>
+    <t>T12-8432</t>
+  </si>
+  <si>
+    <t>SIMPLICIO TORREON</t>
+  </si>
+  <si>
+    <t>01/11/2019</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TRIMAX COMPUTER SUPPLIES &amp; GEN. MERCHANDISE</t>
+  </si>
+  <si>
+    <t>PROVINCIAL GOVERNMENT OF BOHOL</t>
+  </si>
+  <si>
+    <t>CITY OF LAPU-LAPU</t>
+  </si>
+  <si>
+    <t>S12-3456</t>
+  </si>
+  <si>
+    <t>SMART COMMUNICATIONS, INC.</t>
+  </si>
+  <si>
+    <t>S12-3468</t>
+  </si>
+  <si>
+    <t>CEBU DOCTORS UNIVERSITY HOSPITAL</t>
+  </si>
+  <si>
+    <t>T12-7974</t>
+  </si>
+  <si>
+    <t>PAMELA IDA DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>T12-8523</t>
+  </si>
+  <si>
+    <t>LOURDES MARATAS</t>
+  </si>
+  <si>
+    <t>T12-8524</t>
+  </si>
+  <si>
+    <t>SAMUEL ATUAN</t>
+  </si>
+  <si>
+    <t>T12-8509</t>
+  </si>
+  <si>
+    <t>CARMELA ROSALES</t>
+  </si>
+  <si>
+    <t>T12-8511</t>
+  </si>
+  <si>
+    <t>T12-8510</t>
+  </si>
+  <si>
+    <t>T01-0007</t>
+  </si>
+  <si>
+    <t>THELMA AMANTE</t>
+  </si>
+  <si>
+    <t>T01-0006</t>
+  </si>
+  <si>
+    <t>STEPHEN CINCOFLORES</t>
+  </si>
+  <si>
+    <t>T12-8508</t>
+  </si>
+  <si>
+    <t>NIÑA KATRINA CADAPAN</t>
+  </si>
+  <si>
+    <t>T12-8467</t>
+  </si>
+  <si>
+    <t>TONEE ROSE PIL</t>
+  </si>
+  <si>
+    <t>T12-8474</t>
+  </si>
+  <si>
+    <t>CHERRY ROSE VILLAESTER</t>
+  </si>
+  <si>
+    <t>T12-8473</t>
+  </si>
+  <si>
+    <t>T12-8507</t>
+  </si>
+  <si>
+    <t>KAREN REGINO</t>
+  </si>
+  <si>
+    <t>T12-8470</t>
+  </si>
+  <si>
+    <t>NIÑA JANE POTOT</t>
+  </si>
+  <si>
+    <t>T12-7355</t>
+  </si>
+  <si>
+    <t>T12-8540</t>
+  </si>
+  <si>
+    <t>SIRC PATRICK AMORES</t>
+  </si>
+  <si>
+    <t>T12-8546</t>
+  </si>
+  <si>
+    <t>MARY CAPUCCINE MORALLOS</t>
+  </si>
+  <si>
+    <t>T12-8545</t>
+  </si>
+  <si>
+    <t>FLORENCE PILAS</t>
+  </si>
+  <si>
+    <t>T12-8547</t>
+  </si>
+  <si>
+    <t>T12-8462</t>
+  </si>
+  <si>
+    <t>ROSE ANNE REROMA</t>
+  </si>
+  <si>
+    <t>01/14/2019</t>
+  </si>
+  <si>
+    <t>T12-8537</t>
+  </si>
+  <si>
+    <t>SHELBAY BLANCO</t>
+  </si>
+  <si>
+    <t>T12-8567</t>
+  </si>
+  <si>
+    <t>BLAINE MELENDRES</t>
+  </si>
+  <si>
+    <t>T12-8541</t>
+  </si>
+  <si>
+    <t>MYLENE INFANTE</t>
+  </si>
+  <si>
+    <t>T12-8538</t>
+  </si>
+  <si>
+    <t>FIEL ANGELIE HERNANDEZ</t>
+  </si>
+  <si>
+    <t>T12-8469</t>
+  </si>
+  <si>
+    <t>T12-8468</t>
+  </si>
+  <si>
+    <t>JELLYVEE LAXINA</t>
+  </si>
+  <si>
+    <t>01/15/2019</t>
+  </si>
+  <si>
+    <t>S12-3470</t>
+  </si>
+  <si>
+    <t>LBC EXPRESS INCORPORATED</t>
+  </si>
+  <si>
+    <t>S01-0069</t>
+  </si>
+  <si>
+    <t>PLDT, INC.</t>
+  </si>
+  <si>
+    <t>S01-0068</t>
+  </si>
+  <si>
+    <t>S01-0067</t>
+  </si>
+  <si>
+    <t>INNOVE COMMUNICATIONS, INC.</t>
+  </si>
+  <si>
+    <t>S01-0066</t>
+  </si>
+  <si>
+    <t>S01-0065</t>
+  </si>
+  <si>
+    <t>S01-0064</t>
+  </si>
+  <si>
+    <t>S01-0063</t>
+  </si>
+  <si>
+    <t>S01-0061</t>
+  </si>
+  <si>
+    <t>S01-0062</t>
+  </si>
+  <si>
+    <t>S01-0060</t>
+  </si>
+  <si>
+    <t>S01-0059</t>
+  </si>
+  <si>
+    <t>T12-8569</t>
+  </si>
+  <si>
+    <t>AIDA CASES</t>
+  </si>
+  <si>
+    <t>T12-8529</t>
+  </si>
+  <si>
+    <t>ELIZABETH TABASA</t>
+  </si>
+  <si>
+    <t>S01-0054</t>
+  </si>
+  <si>
+    <t>JUAN B. DOSADO MEMORIAL HOSPITAL</t>
+  </si>
+  <si>
+    <t>S01-0070</t>
+  </si>
+  <si>
+    <t>S01-0071</t>
+  </si>
+  <si>
+    <t>T12-8574</t>
+  </si>
+  <si>
+    <t>JONATHAN NEIL ERASMO</t>
+  </si>
+  <si>
+    <t>T12-8555</t>
+  </si>
+  <si>
+    <t>MA. JOSIANE PEPITO</t>
+  </si>
+  <si>
+    <t>T12-8554</t>
+  </si>
+  <si>
+    <t>MILAGROS ISRAEL</t>
+  </si>
+  <si>
+    <t>T12-8551</t>
+  </si>
+  <si>
+    <t>ANGELITA MALERIADO</t>
+  </si>
+  <si>
+    <t>T12-8563</t>
+  </si>
+  <si>
+    <t>HAZELLE LOPENA</t>
+  </si>
+  <si>
+    <t>T12-8564</t>
+  </si>
+  <si>
+    <t>CATHERINE NISTAL</t>
+  </si>
+  <si>
+    <t>S01-0056</t>
+  </si>
+  <si>
+    <t>MACTAN DOCTORS HOSPITAL</t>
+  </si>
+  <si>
+    <t>T12-8570</t>
+  </si>
+  <si>
+    <t>CRISTINA COMENDADOR</t>
+  </si>
+  <si>
+    <t>T12-8566</t>
+  </si>
+  <si>
+    <t>T01-0010</t>
+  </si>
+  <si>
+    <t>CLAUDETTE MAE FLORES</t>
+  </si>
+  <si>
+    <t>T12-8456</t>
+  </si>
+  <si>
+    <t>ALLAN DEO PATENIO</t>
+  </si>
+  <si>
+    <t>T12-8565</t>
+  </si>
+  <si>
+    <t>HONEY LYN DANILA</t>
+  </si>
+  <si>
+    <t>T12-8582</t>
+  </si>
+  <si>
+    <t>T12-8578</t>
+  </si>
+  <si>
+    <t>DOUGLAS VALLEJO JR.</t>
+  </si>
+  <si>
+    <t>T01-0013</t>
+  </si>
+  <si>
+    <t>ANGELIE BROOK CEJUDO</t>
+  </si>
+  <si>
+    <t>T12-8553</t>
+  </si>
+  <si>
+    <t>LEONIDAS SANIEL</t>
+  </si>
+  <si>
+    <t>T12-8559</t>
+  </si>
+  <si>
+    <t>TERESITA SARIGUMBA</t>
+  </si>
+  <si>
+    <t>T12-8577</t>
+  </si>
+  <si>
+    <t>KEEM REDULA ENRERA</t>
+  </si>
+  <si>
+    <t>T12-8506</t>
+  </si>
+  <si>
+    <t>CATHY ANNE MARIE RAMIREZ</t>
+  </si>
+  <si>
+    <t>01/16/2019</t>
+  </si>
+  <si>
+    <t>T12-7751</t>
+  </si>
+  <si>
+    <t>AUDREY ANNE NAJARRO-DIAZ</t>
+  </si>
+  <si>
+    <t>T12-7752</t>
+  </si>
+  <si>
+    <t>ELMER KENT LOPEZ</t>
+  </si>
+  <si>
+    <t>T12-7753</t>
+  </si>
+  <si>
+    <t>RAMON NAJARRO</t>
+  </si>
+  <si>
+    <t>T12-8522</t>
+  </si>
+  <si>
+    <t>RONADIT ARRIESGADO</t>
+  </si>
+  <si>
+    <t>S01-0072</t>
+  </si>
+  <si>
+    <t>S01-0074</t>
+  </si>
+  <si>
+    <t>S01-0073</t>
+  </si>
+  <si>
+    <t>01/17/2019</t>
+  </si>
+  <si>
+    <t>S01-0078</t>
+  </si>
+  <si>
+    <t>VECO</t>
+  </si>
+  <si>
+    <t>S01-0077</t>
+  </si>
+  <si>
+    <t>S01-0076</t>
+  </si>
+  <si>
+    <t>S01-0079</t>
+  </si>
+  <si>
+    <t>S01-0083</t>
+  </si>
+  <si>
+    <t>S01-0082</t>
+  </si>
+  <si>
+    <t>S01-0081</t>
+  </si>
+  <si>
+    <t>01/18/2019</t>
+  </si>
+  <si>
+    <t>S01-0089</t>
+  </si>
+  <si>
+    <t>T12-8587</t>
+  </si>
+  <si>
+    <t>MERCY GRACE BONCALES</t>
+  </si>
+  <si>
+    <t>T12-8601</t>
+  </si>
+  <si>
+    <t>MARIA RICA TAGO</t>
+  </si>
+  <si>
+    <t>T12-8589</t>
+  </si>
+  <si>
+    <t>T12-8590</t>
+  </si>
+  <si>
+    <t>T12-8591</t>
+  </si>
+  <si>
+    <t>ABELARD A_x0010_ÑANA</t>
+  </si>
+  <si>
+    <t>T12-8599</t>
+  </si>
+  <si>
+    <t>MAY SHISHA TORREON</t>
+  </si>
+  <si>
+    <t>T12-8600</t>
+  </si>
+  <si>
+    <t>NORY ANN ABUEVA</t>
+  </si>
+  <si>
+    <t>T12-8604</t>
+  </si>
+  <si>
+    <t>RUFFA DEL VALLE-ESTA_x0010_ÑO</t>
+  </si>
+  <si>
+    <t>T12-8596</t>
+  </si>
+  <si>
+    <t>MADELYN ATUP</t>
+  </si>
+  <si>
+    <t>T12-8597</t>
+  </si>
+  <si>
+    <t>MAYLUZEL QUILICOT</t>
+  </si>
+  <si>
+    <t>T12-8598</t>
+  </si>
+  <si>
+    <t>CHERYL INTE</t>
+  </si>
+  <si>
+    <t>T12-8594</t>
+  </si>
+  <si>
+    <t>ANALYN LITUB</t>
+  </si>
+  <si>
+    <t>T12-8603</t>
+  </si>
+  <si>
+    <t>FERNIE ANN ROSAROSO</t>
+  </si>
+  <si>
+    <t>T12-8602</t>
+  </si>
+  <si>
+    <t>JOCELYN PANTINOPLE</t>
+  </si>
+  <si>
+    <t>T12-8595</t>
+  </si>
+  <si>
+    <t>HENRY NICHOLSON LABAJO</t>
+  </si>
+  <si>
+    <t>S01-107</t>
+  </si>
+  <si>
+    <t>T12-8465</t>
+  </si>
+  <si>
+    <t>T12-8592</t>
+  </si>
+  <si>
+    <t>CHENNY ATON</t>
+  </si>
+  <si>
+    <t>T12-8593</t>
+  </si>
+  <si>
+    <t>KAREN PACATANG</t>
+  </si>
+  <si>
+    <t>T12-8586</t>
+  </si>
+  <si>
+    <t>DAVILYN AGUR</t>
+  </si>
+  <si>
+    <t>T12-8588</t>
+  </si>
+  <si>
+    <t>MYRA LEONORA SALVALEON</t>
+  </si>
+  <si>
+    <t>T12-8609</t>
+  </si>
+  <si>
+    <t>KAY CARINA ANG</t>
+  </si>
+  <si>
+    <t>T12-8611</t>
+  </si>
+  <si>
+    <t>STEVEN RITZ GONZALVE</t>
+  </si>
+  <si>
+    <t>T12-8608</t>
+  </si>
+  <si>
+    <t>MIGUELA CAHAYAG</t>
+  </si>
+  <si>
+    <t>T12-8606</t>
+  </si>
+  <si>
+    <t>GIEFRED REGNER, ET AL</t>
+  </si>
+  <si>
+    <t>T12-8607</t>
+  </si>
+  <si>
+    <t>LETECIA YECYEC, ET AL</t>
+  </si>
+  <si>
+    <t>T12-8466</t>
+  </si>
+  <si>
+    <t>01/21/2019</t>
+  </si>
+  <si>
+    <t>S01-106</t>
+  </si>
+  <si>
+    <t>T01-021</t>
+  </si>
+  <si>
+    <t>T12-8539</t>
+  </si>
+  <si>
+    <t>01/22/2019</t>
+  </si>
+  <si>
+    <t>T12-8612</t>
+  </si>
+  <si>
+    <t>MARIA CHONA SINGCO</t>
+  </si>
+  <si>
+    <t>T12-8605</t>
+  </si>
+  <si>
+    <t>T12-8585</t>
+  </si>
+  <si>
+    <t>ROWENA QUILAB</t>
+  </si>
+  <si>
+    <t>01/23/2019</t>
+  </si>
+  <si>
+    <t>S01-0119</t>
+  </si>
+  <si>
+    <t>S01-0118</t>
+  </si>
+  <si>
+    <t>T12-8626</t>
+  </si>
+  <si>
+    <t>T12-8489</t>
+  </si>
+  <si>
+    <t>JOHN CHRISTIAN AKJUL</t>
+  </si>
+  <si>
+    <t>S01-0115</t>
+  </si>
+  <si>
+    <t>PHILIPPINE AIRLINES</t>
+  </si>
+  <si>
+    <t>T01-0028</t>
+  </si>
+  <si>
+    <t>BERNADINE HAYAG</t>
+  </si>
+  <si>
+    <t>T01-0026</t>
+  </si>
+  <si>
+    <t>JEANETTE PAULINE ARELLANO-CORTES</t>
+  </si>
+  <si>
+    <t>T12-8616</t>
+  </si>
+  <si>
+    <t>NELSON NAVARRO</t>
+  </si>
+  <si>
+    <t>S01-0112</t>
+  </si>
+  <si>
+    <t>01/24/2019</t>
+  </si>
+  <si>
+    <t>S01-0122</t>
+  </si>
+  <si>
+    <t>METROPOLITAN CEBU WATER DISTRICT</t>
+  </si>
+  <si>
+    <t>T12-8625</t>
+  </si>
+  <si>
+    <t>MARIFE BAYLON/ LBP</t>
+  </si>
+  <si>
+    <t>T12-8628</t>
+  </si>
+  <si>
+    <t>ROZZEL APRIL ORONG</t>
+  </si>
+  <si>
+    <t>T12-8627</t>
+  </si>
+  <si>
+    <t>MICHAEL NITAFAN</t>
+  </si>
+  <si>
+    <t>01/25/2019</t>
+  </si>
+  <si>
+    <t>S01-0126</t>
+  </si>
+  <si>
+    <t>S01-0142</t>
+  </si>
+  <si>
+    <t>S01-0141</t>
+  </si>
+  <si>
+    <t>S01-0143</t>
+  </si>
+  <si>
+    <t>S01-0144</t>
+  </si>
+  <si>
+    <t>S01-0120</t>
+  </si>
+  <si>
+    <t>LABCORE, INC.</t>
+  </si>
+  <si>
+    <t>T12-8461</t>
+  </si>
+  <si>
+    <t>NIMFA ECO</t>
+  </si>
+  <si>
+    <t>01/28/2019</t>
+  </si>
+  <si>
+    <t>T12-8630</t>
+  </si>
+  <si>
+    <t>RUBEN ESCARDA</t>
+  </si>
+  <si>
+    <t>T12-8631</t>
+  </si>
+  <si>
+    <t>GIGI CHUA</t>
+  </si>
+  <si>
+    <t>T01-0016</t>
+  </si>
+  <si>
+    <t>SUSAN ANDRIANO</t>
+  </si>
+  <si>
+    <t>01/29/2019</t>
+  </si>
+  <si>
+    <t>T01-0048</t>
+  </si>
+  <si>
+    <t>MA. PORTIA REYES</t>
+  </si>
+  <si>
+    <t>S01-0153</t>
+  </si>
+  <si>
+    <t>01/30/2019</t>
+  </si>
+  <si>
+    <t>T12-8635</t>
+  </si>
+  <si>
+    <t>LANDBANK OF THE PHILIPPINES</t>
+  </si>
+  <si>
+    <t>02/01/2019</t>
+  </si>
+  <si>
+    <t>T01-0069/0070</t>
+  </si>
+  <si>
+    <t>T12-8634</t>
+  </si>
+  <si>
+    <t>LALAYN HORMACHUELOS-ESTOMO</t>
+  </si>
+  <si>
+    <t>T12-8633</t>
+  </si>
+  <si>
+    <t>ARNOLD BONGCAC JR.</t>
+  </si>
+  <si>
+    <t>T01-0068/0067</t>
+  </si>
+  <si>
+    <t>S01-0165</t>
+  </si>
+  <si>
+    <t>S01-0160</t>
+  </si>
+  <si>
+    <t>EDNA PALACIOS</t>
+  </si>
+  <si>
+    <t>T12-8641</t>
+  </si>
+  <si>
+    <t>T12-8638</t>
+  </si>
+  <si>
+    <t>LEOPOLDO VILLAESTER</t>
+  </si>
+  <si>
+    <t>T12-8624</t>
+  </si>
+  <si>
+    <t>ROY JULIEN JUMAMOY</t>
+  </si>
+  <si>
+    <t>T01-0084</t>
+  </si>
+  <si>
+    <t>T12-8640</t>
+  </si>
+  <si>
+    <t>VINCENT BRYLLE CAÑETE</t>
+  </si>
+  <si>
+    <t>T02-0085</t>
+  </si>
+  <si>
+    <t>JENNIFER REMOLLO</t>
+  </si>
+  <si>
+    <t>T02-0088</t>
+  </si>
+  <si>
+    <t>02/04/2019</t>
+  </si>
+  <si>
+    <t>T02-7614</t>
+  </si>
+  <si>
+    <t>AGNES M. GARCES</t>
+  </si>
+  <si>
+    <t>S02-0188</t>
+  </si>
+  <si>
+    <t>S02-0191</t>
+  </si>
+  <si>
+    <t>S12-3282</t>
+  </si>
+  <si>
+    <t>CITY OF CEBU</t>
+  </si>
+  <si>
+    <t>02/08/2019</t>
+  </si>
+  <si>
+    <t>T11-7113</t>
+  </si>
+  <si>
+    <t>CLARICE NOVA C. PACATANG ET AL.,</t>
+  </si>
+  <si>
+    <t>T11-7109</t>
+  </si>
+  <si>
+    <t>PEREGRINA A. RALLOS ET. AL</t>
+  </si>
+  <si>
+    <t>T12-8649</t>
+  </si>
+  <si>
+    <t>LALYN HORMACHUELOS-ESTOMO</t>
+  </si>
+  <si>
+    <t>T12-8648</t>
+  </si>
+  <si>
+    <t>LEIAN CHARIE BERNAT</t>
+  </si>
+  <si>
+    <t>T12-7833</t>
+  </si>
+  <si>
+    <t>NIEL JOHN L. OCLARIT</t>
+  </si>
+  <si>
+    <t>02/11/2019</t>
+  </si>
+  <si>
+    <t>T02-0172</t>
+  </si>
+  <si>
+    <t>T02-0173</t>
+  </si>
+  <si>
+    <t>CAROLYN F. BALANSAG</t>
+  </si>
+  <si>
+    <t>T02-0187</t>
+  </si>
+  <si>
+    <t>PONCIANA S. SELIM</t>
+  </si>
+  <si>
+    <t>T02-0186</t>
+  </si>
+  <si>
+    <t>T11-7115</t>
+  </si>
+  <si>
+    <t>T11-8653</t>
+  </si>
+  <si>
+    <t>JOMAR M. VIDAS</t>
+  </si>
+  <si>
+    <t>T11-7108</t>
+  </si>
+  <si>
+    <t>MYRA LEONORA M. SALVALEON</t>
+  </si>
+  <si>
+    <t>T12-7488</t>
+  </si>
+  <si>
+    <t>SIMPLICIO E. TORREON ET.AL</t>
+  </si>
+  <si>
+    <t>T12-8656</t>
+  </si>
+  <si>
+    <t>FATIMA JOIE AUTENTICO</t>
+  </si>
+  <si>
+    <t>T12-8651</t>
+  </si>
+  <si>
+    <t>DINA C. FLORES</t>
+  </si>
+  <si>
+    <t>T12-8654</t>
+  </si>
+  <si>
+    <t>ANABELLE B. CABAHUG</t>
+  </si>
+  <si>
+    <t>T11-6986</t>
+  </si>
+  <si>
+    <t>NIÑO NEIL G. ABASTAS</t>
+  </si>
+  <si>
+    <t>T11-8655</t>
+  </si>
+  <si>
+    <t>RHODA L. BERNALES</t>
+  </si>
+  <si>
+    <t>02/12/2019</t>
+  </si>
+  <si>
+    <t>T12-7668</t>
+  </si>
+  <si>
+    <t>JOHN GREGUIL YECYEC, ET AL</t>
+  </si>
+  <si>
+    <t>T12-7114</t>
+  </si>
+  <si>
+    <t>ABIGAIL MUTYA BANGOD, ET AL</t>
+  </si>
+  <si>
+    <t>T11-7110</t>
+  </si>
+  <si>
+    <t>SOL SIMPORIOS, ET AL</t>
+  </si>
+  <si>
+    <t>T02-0101</t>
+  </si>
+  <si>
+    <t>CRESTITA GLORIA</t>
+  </si>
+  <si>
+    <t>T02-0197</t>
+  </si>
+  <si>
+    <t>T11-7111</t>
+  </si>
+  <si>
+    <t>CHENNY ATON ET.,AL</t>
+  </si>
+  <si>
+    <t>T02-0198</t>
+  </si>
+  <si>
+    <t>T02-7489</t>
+  </si>
+  <si>
+    <t>T12-8644</t>
+  </si>
+  <si>
+    <t>T12-8660</t>
+  </si>
+  <si>
+    <t>T11-6775</t>
+  </si>
+  <si>
+    <t>CLARICE NOCVA C. PACATANG ET.AL</t>
+  </si>
+  <si>
+    <t>T12-7672</t>
+  </si>
+  <si>
+    <t>CHRISTIAN PETER III BUDIONGAN, ET AL</t>
+  </si>
+  <si>
+    <t>02/13/2019</t>
+  </si>
+  <si>
+    <t>LOURDES FOOD PRODUCTS AND CATERING SERVICES</t>
+  </si>
+  <si>
+    <t>S02-0185</t>
+  </si>
+  <si>
+    <t>S02-0187</t>
+  </si>
+  <si>
+    <t>T02-0218</t>
+  </si>
+  <si>
+    <t>JOSETTE NAVARRO</t>
+  </si>
+  <si>
+    <t>T02-0208</t>
+  </si>
+  <si>
+    <t>02/14/2019</t>
+  </si>
+  <si>
+    <t>T02-0225</t>
+  </si>
+  <si>
+    <t>JOCELYN BENSI</t>
+  </si>
+  <si>
+    <t>S02-0186</t>
+  </si>
+  <si>
+    <t>S02-0256</t>
+  </si>
+  <si>
+    <t>02/18/2019</t>
+  </si>
+  <si>
+    <t>T02-0260</t>
+  </si>
+  <si>
+    <t>ROLDAN CUBILLO</t>
   </si>
 </sst>
 </file>
@@ -77,7 +1205,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -90,6 +1218,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -386,7 +1518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -424,6 +1556,4486 @@
       </c>
       <c r="G1" s="5"/>
     </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6">
+        <v>6</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6">
+        <v>8</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6">
+        <v>11</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6">
+        <v>12</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6">
+        <v>13</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6">
+        <v>14</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="6">
+        <v>15</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="6">
+        <v>16</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="6">
+        <v>17</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="6">
+        <v>18</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="6">
+        <v>19</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="6">
+        <v>20</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="6">
+        <v>21</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="6">
+        <v>22</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="6">
+        <v>23</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="6">
+        <v>24</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="6">
+        <v>25</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="6">
+        <v>26</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="6">
+        <v>27</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="6">
+        <v>28</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="6">
+        <v>29</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="6">
+        <v>30</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="6">
+        <v>31</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="6">
+        <v>32</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="6">
+        <v>33</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="6">
+        <v>34</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="6">
+        <v>35</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="6">
+        <v>36</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="6">
+        <v>37</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="6">
+        <v>38</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="6">
+        <v>39</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="6">
+        <v>40</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="6">
+        <v>41</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="6">
+        <v>42</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="6">
+        <v>43</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="6">
+        <v>44</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="6">
+        <v>45</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="6">
+        <v>46</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="6">
+        <v>47</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="6">
+        <v>48</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="6">
+        <v>49</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="6">
+        <v>50</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="6">
+        <v>51</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="6">
+        <v>52</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="6">
+        <v>53</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="6">
+        <v>54</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="6">
+        <v>55</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="6">
+        <v>56</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" s="6">
+        <v>57</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" s="6">
+        <v>58</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="6">
+        <v>59</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="6">
+        <v>60</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="6">
+        <v>61</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="6">
+        <v>62</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="6">
+        <v>63</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="6">
+        <v>64</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="6">
+        <v>65</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="6">
+        <v>66</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="6">
+        <v>67</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="6">
+        <v>68</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" s="6">
+        <v>69</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="6">
+        <v>70</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="6">
+        <v>71</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="6">
+        <v>72</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" s="6">
+        <v>73</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="6">
+        <v>74</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="6">
+        <v>75</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" s="6">
+        <v>76</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D78" s="6">
+        <v>77</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" s="6">
+        <v>78</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="6">
+        <v>79</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D81" s="6">
+        <v>80</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="6">
+        <v>81</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D83" s="6">
+        <v>82</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D84" s="6">
+        <v>83</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" s="6">
+        <v>84</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="6">
+        <v>88</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87" s="6">
+        <v>89</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D88" s="6">
+        <v>90</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D89" s="6">
+        <v>91</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" s="6">
+        <v>92</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="6">
+        <v>85</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="6">
+        <v>86</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" s="6">
+        <v>87</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D94" s="6">
+        <v>93</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D95" s="6">
+        <v>94</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" s="6">
+        <v>95</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D97" s="6">
+        <v>96</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D98" s="6">
+        <v>97</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D99" s="6">
+        <v>98</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D100" s="6">
+        <v>99</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D101" s="6">
+        <v>100</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D102" s="6">
+        <v>101</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D103" s="6">
+        <v>102</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D104" s="6">
+        <v>103</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="6">
+        <v>104</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D106" s="6">
+        <v>105</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D107" s="6">
+        <v>106</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D108" s="6">
+        <v>107</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D109" s="6">
+        <v>108</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D110" s="6">
+        <v>109</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D111" s="6">
+        <v>110</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D112" s="6">
+        <v>111</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D113" s="6">
+        <v>112</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D114" s="6">
+        <v>113</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D115" s="6">
+        <v>114</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D116" s="6">
+        <v>115</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117" s="6">
+        <v>116</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" s="6">
+        <v>117</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D119" s="6">
+        <v>118</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D120" s="6">
+        <v>119</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D121" s="6">
+        <v>120</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D122" s="6">
+        <v>121</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D123" s="6">
+        <v>122</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D124" s="6">
+        <v>123</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D125" s="6">
+        <v>124</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D126" s="6">
+        <v>125</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D127" s="6">
+        <v>126</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D128" s="6">
+        <v>127</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D129" s="6">
+        <v>128</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D130" s="6">
+        <v>129</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D131" s="6">
+        <v>130</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D132" s="6">
+        <v>133</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D133" s="6">
+        <v>134</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D134" s="6">
+        <v>135</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D135" s="6">
+        <v>136</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D136" s="6">
+        <v>137</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D137" s="6">
+        <v>138</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D138" s="6">
+        <v>139</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D139" s="6">
+        <v>140</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D140" s="6">
+        <v>141</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D141" s="6">
+        <v>142</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D142" s="6">
+        <v>143</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D143" s="6">
+        <v>131</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D144" s="6">
+        <v>132</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D145" s="6">
+        <v>144</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D146" s="6">
+        <v>145</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D147" s="6">
+        <v>146</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D148" s="6">
+        <v>147</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D149" s="6">
+        <v>150</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D150" s="6">
+        <v>151</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D151" s="6">
+        <v>152</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D152" s="6">
+        <v>153</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D153" s="6">
+        <v>154</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D154" s="6">
+        <v>155</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D155" s="6">
+        <v>156</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D156" s="6">
+        <v>157</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D157" s="6">
+        <v>158</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D158" s="6">
+        <v>159</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D159" s="6">
+        <v>160</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D160" s="6">
+        <v>161</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D161" s="6">
+        <v>162</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D162" s="6">
+        <v>163</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D163" s="6">
+        <v>164</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D164" s="6">
+        <v>165</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D165" s="6">
+        <v>166</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D166" s="6">
+        <v>167</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D167" s="6">
+        <v>168</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D168" s="6">
+        <v>169</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D169" s="6">
+        <v>170</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D170" s="6">
+        <v>171</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D171" s="6">
+        <v>172</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D172" s="6">
+        <v>173</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D173" s="6">
+        <v>174</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D174" s="6">
+        <v>175</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="D175" s="6">
+        <v>176</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F175" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="D176" s="6">
+        <v>177</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D177" s="6">
+        <v>178</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D178" s="6">
+        <v>179</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="D179" s="6">
+        <v>180</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D180" s="6">
+        <v>181</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D181" s="6">
+        <v>182</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="D182" s="6">
+        <v>185</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="D183" s="6">
+        <v>186</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="D184" s="6">
+        <v>187</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F184" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D185" s="6">
+        <v>188</v>
+      </c>
+      <c r="E185" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D186" s="6">
+        <v>189</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F186" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="D187" s="6">
+        <v>190</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D188" s="6">
+        <v>191</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D189" s="6">
+        <v>192</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D190" s="6">
+        <v>193</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D191" s="6">
+        <v>194</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D192" s="6">
+        <v>195</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F192" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D193" s="6">
+        <v>196</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F193" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D194" s="6">
+        <v>197</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D195" s="6">
+        <v>198</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D196" s="6">
+        <v>199</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D197" s="6">
+        <v>200</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="D198" s="6">
+        <v>201</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D199" s="6">
+        <v>202</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D200" s="6">
+        <v>203</v>
+      </c>
+      <c r="E200" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F200" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D201" s="6">
+        <v>215</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F201" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D202" s="6">
+        <v>219</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D203" s="6">
+        <v>220</v>
+      </c>
+      <c r="E203" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="D204" s="6">
+        <v>221</v>
+      </c>
+      <c r="E204" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D205" s="6">
+        <v>222</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D206" s="6">
+        <v>204</v>
+      </c>
+      <c r="E206" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D207" s="6">
+        <v>205</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F207" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D208" s="6">
+        <v>206</v>
+      </c>
+      <c r="E208" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F208" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D209" s="6">
+        <v>207</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F209" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D210" s="6">
+        <v>208</v>
+      </c>
+      <c r="E210" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F210" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D211" s="6">
+        <v>209</v>
+      </c>
+      <c r="E211" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D212" s="6">
+        <v>210</v>
+      </c>
+      <c r="E212" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F212" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="D213" s="6">
+        <v>211</v>
+      </c>
+      <c r="E213" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F213" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="D214" s="6">
+        <v>212</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D215" s="6">
+        <v>213</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D216" s="6">
+        <v>214</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F216" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D217" s="6">
+        <v>223</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F217" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D218" s="6">
+        <v>224</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D219" s="6">
+        <v>225</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F219" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D220" s="6">
+        <v>226</v>
+      </c>
+      <c r="E220" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F220" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D221" s="6">
+        <v>227</v>
+      </c>
+      <c r="E221" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D222" s="6">
+        <v>216</v>
+      </c>
+      <c r="E222" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F222" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D223" s="6">
+        <v>217</v>
+      </c>
+      <c r="E223" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F223" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D224" s="6">
+        <v>218</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="D225" s="6">
+        <v>228</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F225" s="7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
